--- a/modeling/lab2/calc.xlsx
+++ b/modeling/lab2/calc.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10916"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asus\Desktop\itmo-4course\modeling\lab2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/isobolev/Desktop/itmo/itmo-4course/modeling/lab2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C58377FF-FE99-4B32-9191-493C1DEA5AD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4A48E9D-24FF-264A-B51C-F2113D1FE94A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15675" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="29000" windowHeight="15680" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="СИСТЕМА_1" sheetId="2" r:id="rId1"/>
+    <sheet name="СИСТЕМА_2" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="100">
   <si>
     <t>C1</t>
   </si>
@@ -295,6 +296,45 @@
   </si>
   <si>
     <t xml:space="preserve">p17 </t>
+  </si>
+  <si>
+    <t>S18</t>
+  </si>
+  <si>
+    <t>S19</t>
+  </si>
+  <si>
+    <t>qλ1</t>
+  </si>
+  <si>
+    <t>(1-q)λ1</t>
+  </si>
+  <si>
+    <t>µ1</t>
+  </si>
+  <si>
+    <t>µ2</t>
+  </si>
+  <si>
+    <t>0.1</t>
+  </si>
+  <si>
+    <t>0.024</t>
+  </si>
+  <si>
+    <t>0.53</t>
+  </si>
+  <si>
+    <t>0.24</t>
+  </si>
+  <si>
+    <t>0.06</t>
+  </si>
+  <si>
+    <t>0.048</t>
+  </si>
+  <si>
+    <t>0.192</t>
   </si>
 </sst>
 </file>
@@ -305,9 +345,16 @@
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.00000%"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -365,6 +412,12 @@
       <family val="1"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -406,48 +459,70 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
-    <cellStyle name="Процентный" xfId="1" builtinId="5"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Per cent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -727,19 +802,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{580A33A0-FE89-48D7-B93F-7D60624729D1}">
   <dimension ref="A1:Z63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Z7" sqref="Z7"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:S19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="11" width="4.73046875" style="1" customWidth="1"/>
-    <col min="12" max="19" width="4.73046875" customWidth="1"/>
-    <col min="22" max="22" width="11.265625" customWidth="1"/>
-    <col min="26" max="26" width="12.86328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="11" width="4.6640625" style="1" customWidth="1"/>
+    <col min="12" max="19" width="4.6640625" customWidth="1"/>
+    <col min="22" max="22" width="11.33203125" customWidth="1"/>
+    <col min="26" max="26" width="12.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -804,7 +879,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="2" spans="1:26" ht="17.649999999999999" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:26" ht="18" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -848,7 +923,7 @@
         <v>0.24</v>
       </c>
     </row>
-    <row r="3" spans="1:26" ht="17.649999999999999" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:26" ht="18" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -892,7 +967,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="4" spans="1:26" ht="17.649999999999999" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:26" ht="18" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
@@ -938,7 +1013,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="5" spans="1:26" ht="17.649999999999999" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:26" ht="18" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
@@ -983,7 +1058,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:26" ht="17.649999999999999" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:26" ht="18" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
@@ -1022,7 +1097,7 @@
         <v>0.112233</v>
       </c>
     </row>
-    <row r="7" spans="1:26" ht="17.649999999999999" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:26" ht="18" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
@@ -1061,7 +1136,7 @@
         <v>8.1931000000000004E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:26" ht="17.649999999999999" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:26" ht="18" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
@@ -1113,7 +1188,7 @@
         <v>4.6412735805658113E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:26" ht="17.649999999999999" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:26" ht="18" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
@@ -1161,7 +1236,7 @@
         <v>-3.5909556748411328E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:26" ht="17.649999999999999" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:26" ht="18" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
@@ -1209,7 +1284,7 @@
         <v>-2.7159820041466894E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:26" ht="17.649999999999999" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:26" ht="18" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
@@ -1261,7 +1336,7 @@
         <v>-1.9999999998354663E-6</v>
       </c>
     </row>
-    <row r="12" spans="1:26" ht="17.649999999999999" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:26" ht="18" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>12</v>
       </c>
@@ -1309,7 +1384,7 @@
         <v>-9.7481357243166478E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:26" ht="17.649999999999999" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:26" ht="18" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>13</v>
       </c>
@@ -1346,7 +1421,7 @@
         <v>4.9692E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:26" ht="17.649999999999999" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:26" ht="18" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>14</v>
       </c>
@@ -1385,7 +1460,7 @@
         <v>2.759E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:26" ht="17.649999999999999" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:26" ht="18" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>15</v>
       </c>
@@ -1424,7 +1499,7 @@
         <v>1.9931000000000001E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:26" ht="17.649999999999999" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:26" ht="18" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>16</v>
       </c>
@@ -1463,7 +1538,7 @@
         <v>7.7118999999999993E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:24" ht="17.649999999999999" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>17</v>
       </c>
@@ -1502,7 +1577,7 @@
         <v>4.7426999999999997E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:24" ht="17.649999999999999" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>18</v>
       </c>
@@ -1539,7 +1614,7 @@
         <v>1.8811000000000001E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:24" ht="17.649999999999999" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>19</v>
       </c>
@@ -1576,7 +1651,7 @@
         <v>4.6281000000000003E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A20"/>
       <c r="B20"/>
       <c r="C20"/>
@@ -1589,7 +1664,7 @@
       <c r="J20"/>
       <c r="K20"/>
     </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A21"/>
       <c r="B21"/>
       <c r="C21"/>
@@ -1602,7 +1677,7 @@
       <c r="J21"/>
       <c r="K21"/>
     </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>0</v>
       </c>
@@ -1661,7 +1736,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:24" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:24" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>1</v>
       </c>
@@ -1699,7 +1774,7 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="24" spans="1:24" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="24" spans="1:24" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>2</v>
       </c>
@@ -1737,7 +1812,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:24" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="25" spans="1:24" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>3</v>
       </c>
@@ -1777,7 +1852,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="26" spans="1:24" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="26" spans="1:24" ht="16" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>4</v>
       </c>
@@ -1817,7 +1892,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:24" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="27" spans="1:24" ht="16" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>5</v>
       </c>
@@ -1858,7 +1933,7 @@
       </c>
       <c r="X27" s="12"/>
     </row>
-    <row r="28" spans="1:24" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="28" spans="1:24" ht="16" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>6</v>
       </c>
@@ -1899,7 +1974,7 @@
       </c>
       <c r="X28" s="12"/>
     </row>
-    <row r="29" spans="1:24" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="29" spans="1:24" ht="16" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>7</v>
       </c>
@@ -1942,7 +2017,7 @@
       </c>
       <c r="X29" s="12"/>
     </row>
-    <row r="30" spans="1:24" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="30" spans="1:24" ht="16" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
         <v>8</v>
       </c>
@@ -1981,7 +2056,7 @@
       </c>
       <c r="X30" s="12"/>
     </row>
-    <row r="31" spans="1:24" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="31" spans="1:24" ht="16" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
         <v>9</v>
       </c>
@@ -2020,7 +2095,7 @@
       </c>
       <c r="X31" s="12"/>
     </row>
-    <row r="32" spans="1:24" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="32" spans="1:24" ht="16" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
         <v>10</v>
       </c>
@@ -2063,7 +2138,7 @@
       </c>
       <c r="X32" s="12"/>
     </row>
-    <row r="33" spans="1:24" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="33" spans="1:24" ht="16" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
         <v>12</v>
       </c>
@@ -2102,7 +2177,7 @@
       </c>
       <c r="X33" s="12"/>
     </row>
-    <row r="34" spans="1:24" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="34" spans="1:24" ht="16" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
         <v>13</v>
       </c>
@@ -2141,7 +2216,7 @@
       </c>
       <c r="X34" s="12"/>
     </row>
-    <row r="35" spans="1:24" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="35" spans="1:24" ht="16" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
         <v>14</v>
       </c>
@@ -2181,7 +2256,7 @@
       </c>
       <c r="X35" s="12"/>
     </row>
-    <row r="36" spans="1:24" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="36" spans="1:24" ht="16" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
         <v>15</v>
       </c>
@@ -2222,7 +2297,7 @@
       </c>
       <c r="X36" s="12"/>
     </row>
-    <row r="37" spans="1:24" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="37" spans="1:24" ht="16" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
         <v>16</v>
       </c>
@@ -2263,7 +2338,7 @@
       </c>
       <c r="X37" s="12"/>
     </row>
-    <row r="38" spans="1:24" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="38" spans="1:24" ht="16" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
         <v>17</v>
       </c>
@@ -2304,7 +2379,7 @@
       </c>
       <c r="X38" s="12"/>
     </row>
-    <row r="39" spans="1:24" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="39" spans="1:24" ht="16" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
         <v>18</v>
       </c>
@@ -2343,7 +2418,7 @@
       </c>
       <c r="X39" s="12"/>
     </row>
-    <row r="40" spans="1:24" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="40" spans="1:24" ht="16" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
         <v>19</v>
       </c>
@@ -2382,7 +2457,7 @@
       </c>
       <c r="X40" s="12"/>
     </row>
-    <row r="41" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:24" x14ac:dyDescent="0.2">
       <c r="U41" t="s">
         <v>59</v>
       </c>
@@ -2392,7 +2467,7 @@
       </c>
       <c r="X41" s="12"/>
     </row>
-    <row r="42" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A42"/>
       <c r="B42"/>
       <c r="C42"/>
@@ -2413,7 +2488,7 @@
       </c>
       <c r="X42" s="12"/>
     </row>
-    <row r="43" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A43"/>
       <c r="B43"/>
       <c r="C43"/>
@@ -2434,7 +2509,7 @@
       </c>
       <c r="X43" s="12"/>
     </row>
-    <row r="44" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A44"/>
       <c r="B44"/>
       <c r="C44"/>
@@ -2455,7 +2530,7 @@
       </c>
       <c r="X44" s="12"/>
     </row>
-    <row r="45" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A45"/>
       <c r="B45"/>
       <c r="C45"/>
@@ -2476,7 +2551,7 @@
       </c>
       <c r="X45" s="12"/>
     </row>
-    <row r="46" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A46"/>
       <c r="B46"/>
       <c r="C46"/>
@@ -2497,7 +2572,7 @@
       </c>
       <c r="X46" s="12"/>
     </row>
-    <row r="47" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A47"/>
       <c r="B47"/>
       <c r="C47"/>
@@ -2518,7 +2593,7 @@
       </c>
       <c r="X47" s="12"/>
     </row>
-    <row r="48" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A48"/>
       <c r="B48"/>
       <c r="C48"/>
@@ -2539,7 +2614,7 @@
       </c>
       <c r="X48" s="12"/>
     </row>
-    <row r="49" spans="21:24" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="49" spans="21:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="U49" t="s">
         <v>61</v>
       </c>
@@ -2549,7 +2624,7 @@
       </c>
       <c r="X49" s="12"/>
     </row>
-    <row r="50" spans="21:24" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="50" spans="21:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="U50" t="s">
         <v>39</v>
       </c>
@@ -2559,7 +2634,7 @@
       </c>
       <c r="X50" s="12"/>
     </row>
-    <row r="51" spans="21:24" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="51" spans="21:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="U51" t="s">
         <v>40</v>
       </c>
@@ -2569,7 +2644,7 @@
       </c>
       <c r="X51" s="12"/>
     </row>
-    <row r="52" spans="21:24" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="52" spans="21:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="U52" t="s">
         <v>41</v>
       </c>
@@ -2579,7 +2654,7 @@
       </c>
       <c r="X52" s="12"/>
     </row>
-    <row r="53" spans="21:24" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="53" spans="21:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="U53" t="s">
         <v>62</v>
       </c>
@@ -2589,7 +2664,7 @@
       </c>
       <c r="X53" s="12"/>
     </row>
-    <row r="54" spans="21:24" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="54" spans="21:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="U54" t="s">
         <v>42</v>
       </c>
@@ -2599,7 +2674,7 @@
       </c>
       <c r="X54" s="12"/>
     </row>
-    <row r="55" spans="21:24" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="55" spans="21:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="U55" t="s">
         <v>43</v>
       </c>
@@ -2609,7 +2684,7 @@
       </c>
       <c r="X55" s="12"/>
     </row>
-    <row r="56" spans="21:24" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="56" spans="21:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="U56" t="s">
         <v>44</v>
       </c>
@@ -2619,7 +2694,7 @@
       </c>
       <c r="X56" s="12"/>
     </row>
-    <row r="57" spans="21:24" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="57" spans="21:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="U57" t="s">
         <v>63</v>
       </c>
@@ -2629,7 +2704,7 @@
       </c>
       <c r="X57" s="12"/>
     </row>
-    <row r="58" spans="21:24" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="58" spans="21:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="U58" t="s">
         <v>45</v>
       </c>
@@ -2639,18 +2714,1600 @@
       </c>
       <c r="X58" s="12"/>
     </row>
-    <row r="59" spans="21:24" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="60" spans="21:24" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="61" spans="21:24" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="63" spans="21:24" x14ac:dyDescent="0.45">
+    <row r="59" spans="21:24" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="60" spans="21:24" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="61" spans="21:24" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="63" spans="21:24" x14ac:dyDescent="0.2">
       <c r="V63" s="10" t="e">
         <f>V58-#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE6EDCF2-97D5-CC41-A133-1E343AE07A97}">
+  <dimension ref="A1:AF44"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="C17" workbookViewId="0">
+      <selection activeCell="K42" sqref="K42"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="AB1" s="18"/>
+      <c r="AC1" s="18"/>
+      <c r="AD1" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="AE1" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="AF1" s="18"/>
+    </row>
+    <row r="2" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="16">
+        <v>0</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="E2" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="15"/>
+      <c r="L2" s="15"/>
+      <c r="M2" s="15"/>
+      <c r="N2" s="15"/>
+      <c r="O2" s="15"/>
+      <c r="P2" s="15"/>
+      <c r="Q2" s="15"/>
+      <c r="R2" s="15"/>
+      <c r="S2" s="15"/>
+      <c r="T2" s="15"/>
+      <c r="U2" s="15"/>
+      <c r="AB2" s="18"/>
+      <c r="AC2" s="18"/>
+      <c r="AD2" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="AE2" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="AF2" s="18"/>
+    </row>
+    <row r="3" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="C3" s="16">
+        <v>1</v>
+      </c>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="K3" s="15"/>
+      <c r="L3" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="M3" s="15"/>
+      <c r="N3" s="15"/>
+      <c r="O3" s="15"/>
+      <c r="P3" s="15"/>
+      <c r="Q3" s="15"/>
+      <c r="R3" s="15"/>
+      <c r="S3" s="15"/>
+      <c r="T3" s="15"/>
+      <c r="U3" s="15"/>
+      <c r="AB3" s="18"/>
+      <c r="AC3" s="18"/>
+      <c r="AD3" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="AE3" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="AF3" s="18"/>
+    </row>
+    <row r="4" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="C4" s="15"/>
+      <c r="D4" s="16">
+        <v>2</v>
+      </c>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="I4" s="15"/>
+      <c r="J4" s="15"/>
+      <c r="K4" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="L4" s="15"/>
+      <c r="M4" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="N4" s="15"/>
+      <c r="O4" s="15"/>
+      <c r="P4" s="15"/>
+      <c r="Q4" s="15"/>
+      <c r="R4" s="15"/>
+      <c r="S4" s="15"/>
+      <c r="T4" s="15"/>
+      <c r="U4" s="15"/>
+      <c r="AB4" s="18"/>
+      <c r="AC4" s="18"/>
+      <c r="AD4" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="AE4" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="AF4" s="18"/>
+    </row>
+    <row r="5" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="16">
+        <v>3</v>
+      </c>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="J5" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="K5" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="L5" s="15"/>
+      <c r="M5" s="15"/>
+      <c r="N5" s="15"/>
+      <c r="O5" s="15"/>
+      <c r="P5" s="15"/>
+      <c r="Q5" s="15"/>
+      <c r="R5" s="15"/>
+      <c r="S5" s="15"/>
+      <c r="T5" s="15"/>
+      <c r="U5" s="15"/>
+      <c r="AB5" s="18"/>
+      <c r="AC5" s="18"/>
+      <c r="AD5" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="AE5" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="AF5" s="18"/>
+    </row>
+    <row r="6" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="16">
+        <v>4</v>
+      </c>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="J6" s="15"/>
+      <c r="K6" s="15"/>
+      <c r="L6" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="M6" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="N6" s="15"/>
+      <c r="O6" s="15"/>
+      <c r="P6" s="15"/>
+      <c r="Q6" s="15"/>
+      <c r="R6" s="15"/>
+      <c r="S6" s="15"/>
+      <c r="T6" s="15"/>
+      <c r="U6" s="15"/>
+      <c r="AB6" s="18"/>
+      <c r="AC6" s="18"/>
+      <c r="AD6" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="AE6" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="AF6" s="18"/>
+    </row>
+    <row r="7" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="15"/>
+      <c r="C7" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="16">
+        <v>5</v>
+      </c>
+      <c r="H7" s="15"/>
+      <c r="I7" s="15"/>
+      <c r="J7" s="15"/>
+      <c r="K7" s="15"/>
+      <c r="L7" s="15"/>
+      <c r="M7" s="15"/>
+      <c r="N7" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="O7" s="15"/>
+      <c r="P7" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q7" s="15"/>
+      <c r="R7" s="15"/>
+      <c r="S7" s="15"/>
+      <c r="T7" s="15"/>
+      <c r="U7" s="15"/>
+      <c r="AB7" s="18"/>
+      <c r="AC7" s="18"/>
+      <c r="AD7" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="AE7" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="AF7" s="18"/>
+    </row>
+    <row r="8" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="15"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="16">
+        <v>6</v>
+      </c>
+      <c r="I8" s="15"/>
+      <c r="J8" s="15"/>
+      <c r="K8" s="15"/>
+      <c r="L8" s="15"/>
+      <c r="M8" s="15"/>
+      <c r="N8" s="15"/>
+      <c r="O8" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="P8" s="15"/>
+      <c r="Q8" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="R8" s="15"/>
+      <c r="S8" s="15"/>
+      <c r="T8" s="15"/>
+      <c r="U8" s="15"/>
+      <c r="AB8" s="18"/>
+      <c r="AC8" s="18"/>
+      <c r="AD8" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="AE8" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="AF8" s="18"/>
+    </row>
+    <row r="9" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="15"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" s="15"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="16">
+        <v>7</v>
+      </c>
+      <c r="J9" s="15"/>
+      <c r="K9" s="15"/>
+      <c r="L9" s="15"/>
+      <c r="M9" s="15"/>
+      <c r="N9" s="15"/>
+      <c r="O9" s="15"/>
+      <c r="P9" s="15"/>
+      <c r="Q9" s="15"/>
+      <c r="R9" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="S9" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="T9" s="15"/>
+      <c r="U9" s="15"/>
+      <c r="AB9" s="18"/>
+      <c r="AC9" s="18"/>
+      <c r="AD9" s="18"/>
+      <c r="AE9" s="18"/>
+      <c r="AF9" s="18"/>
+    </row>
+    <row r="10" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="15"/>
+      <c r="C10" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="F10" s="15"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="16">
+        <v>8</v>
+      </c>
+      <c r="K10" s="15"/>
+      <c r="L10" s="15"/>
+      <c r="M10" s="15"/>
+      <c r="N10" s="15"/>
+      <c r="O10" s="15"/>
+      <c r="P10" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q10" s="15"/>
+      <c r="R10" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="S10" s="15"/>
+      <c r="T10" s="15"/>
+      <c r="U10" s="15"/>
+    </row>
+    <row r="11" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="15"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="F11" s="15"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="15"/>
+      <c r="K11" s="16">
+        <v>9</v>
+      </c>
+      <c r="L11" s="15"/>
+      <c r="M11" s="15"/>
+      <c r="N11" s="15"/>
+      <c r="O11" s="15"/>
+      <c r="P11" s="15"/>
+      <c r="Q11" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="R11" s="15"/>
+      <c r="S11" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="T11" s="15"/>
+      <c r="U11" s="15"/>
+    </row>
+    <row r="12" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="15"/>
+      <c r="C12" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" s="15"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="G12" s="15"/>
+      <c r="H12" s="15"/>
+      <c r="I12" s="15"/>
+      <c r="J12" s="15"/>
+      <c r="K12" s="15"/>
+      <c r="L12" s="16">
+        <v>10</v>
+      </c>
+      <c r="M12" s="15"/>
+      <c r="N12" s="15"/>
+      <c r="O12" s="15"/>
+      <c r="P12" s="15"/>
+      <c r="Q12" s="15"/>
+      <c r="R12" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="S12" s="15"/>
+      <c r="T12" s="15"/>
+      <c r="U12" s="15"/>
+    </row>
+    <row r="13" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="15"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" s="15"/>
+      <c r="F13" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="G13" s="15"/>
+      <c r="H13" s="15"/>
+      <c r="I13" s="15"/>
+      <c r="J13" s="15"/>
+      <c r="K13" s="15"/>
+      <c r="L13" s="15"/>
+      <c r="M13" s="16">
+        <v>11</v>
+      </c>
+      <c r="N13" s="15"/>
+      <c r="O13" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="P13" s="15"/>
+      <c r="Q13" s="15"/>
+      <c r="R13" s="15"/>
+      <c r="S13" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="T13" s="15"/>
+      <c r="U13" s="15"/>
+    </row>
+    <row r="14" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="15"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="H14" s="15"/>
+      <c r="I14" s="15"/>
+      <c r="J14" s="15"/>
+      <c r="K14" s="15"/>
+      <c r="L14" s="15"/>
+      <c r="M14" s="15"/>
+      <c r="N14" s="16">
+        <v>12</v>
+      </c>
+      <c r="O14" s="15"/>
+      <c r="P14" s="15"/>
+      <c r="Q14" s="15"/>
+      <c r="R14" s="15"/>
+      <c r="S14" s="15"/>
+      <c r="T14" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="U14" s="15"/>
+    </row>
+    <row r="15" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="15"/>
+      <c r="C15" s="15"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="15"/>
+      <c r="G15" s="15"/>
+      <c r="H15" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="I15" s="15"/>
+      <c r="J15" s="15"/>
+      <c r="K15" s="15"/>
+      <c r="L15" s="15"/>
+      <c r="M15" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="N15" s="15"/>
+      <c r="O15" s="16">
+        <v>13</v>
+      </c>
+      <c r="P15" s="15"/>
+      <c r="Q15" s="15"/>
+      <c r="R15" s="15"/>
+      <c r="S15" s="15"/>
+      <c r="T15" s="15"/>
+      <c r="U15" s="15" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" s="15"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="H16" s="15"/>
+      <c r="I16" s="15"/>
+      <c r="J16" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="K16" s="15"/>
+      <c r="L16" s="15"/>
+      <c r="M16" s="15"/>
+      <c r="N16" s="15"/>
+      <c r="O16" s="15"/>
+      <c r="P16" s="16">
+        <v>14</v>
+      </c>
+      <c r="Q16" s="15"/>
+      <c r="R16" s="15"/>
+      <c r="S16" s="15"/>
+      <c r="T16" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="U16" s="15"/>
+    </row>
+    <row r="17" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" s="15"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="15"/>
+      <c r="H17" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="I17" s="15"/>
+      <c r="J17" s="15"/>
+      <c r="K17" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="L17" s="15"/>
+      <c r="M17" s="15"/>
+      <c r="N17" s="15"/>
+      <c r="O17" s="15"/>
+      <c r="P17" s="15"/>
+      <c r="Q17" s="16">
+        <v>15</v>
+      </c>
+      <c r="R17" s="15"/>
+      <c r="S17" s="15"/>
+      <c r="T17" s="15"/>
+      <c r="U17" s="15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" s="15"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="15"/>
+      <c r="I18" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="J18" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K18" s="15"/>
+      <c r="L18" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="M18" s="15"/>
+      <c r="N18" s="15"/>
+      <c r="O18" s="15"/>
+      <c r="P18" s="15"/>
+      <c r="Q18" s="15"/>
+      <c r="R18" s="16">
+        <v>16</v>
+      </c>
+      <c r="S18" s="15"/>
+      <c r="T18" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="U18" s="15"/>
+    </row>
+    <row r="19" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+      <c r="A19" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19" s="15"/>
+      <c r="C19" s="15"/>
+      <c r="D19" s="15"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="15"/>
+      <c r="G19" s="15"/>
+      <c r="H19" s="15"/>
+      <c r="I19" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="J19" s="15"/>
+      <c r="K19" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="L19" s="15"/>
+      <c r="M19" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="N19" s="15"/>
+      <c r="O19" s="15"/>
+      <c r="P19" s="15"/>
+      <c r="Q19" s="15"/>
+      <c r="R19" s="15"/>
+      <c r="S19" s="16">
+        <v>17</v>
+      </c>
+      <c r="T19" s="17"/>
+      <c r="U19" s="15" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+      <c r="A20" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B20" s="15"/>
+      <c r="C20" s="15"/>
+      <c r="D20" s="15"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="15"/>
+      <c r="G20" s="15"/>
+      <c r="H20" s="15"/>
+      <c r="I20" s="15"/>
+      <c r="J20" s="15"/>
+      <c r="K20" s="15"/>
+      <c r="L20" s="15"/>
+      <c r="M20" s="15"/>
+      <c r="N20" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="O20" s="15"/>
+      <c r="P20" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q20" s="15"/>
+      <c r="R20" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="S20" s="17"/>
+      <c r="T20" s="16">
+        <v>18</v>
+      </c>
+      <c r="U20" s="17"/>
+    </row>
+    <row r="21" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+      <c r="A21" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B21" s="15"/>
+      <c r="C21" s="15"/>
+      <c r="D21" s="15"/>
+      <c r="E21" s="15"/>
+      <c r="F21" s="15"/>
+      <c r="G21" s="15"/>
+      <c r="H21" s="15"/>
+      <c r="I21" s="15"/>
+      <c r="J21" s="15"/>
+      <c r="K21" s="15"/>
+      <c r="L21" s="15"/>
+      <c r="M21" s="15"/>
+      <c r="N21" s="15"/>
+      <c r="O21" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="P21" s="15"/>
+      <c r="Q21" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="R21" s="15"/>
+      <c r="S21" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="T21" s="17"/>
+      <c r="U21" s="16">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A24" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K24" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L24" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="M24" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="N24" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="O24" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="P24" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q24" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="R24" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="S24" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="T24" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="U24" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+      <c r="A25" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B25" s="16">
+        <v>0</v>
+      </c>
+      <c r="C25" s="20" t="s">
+        <v>98</v>
+      </c>
+      <c r="D25" s="20" t="s">
+        <v>99</v>
+      </c>
+      <c r="E25" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="F25" s="21" t="s">
+        <v>97</v>
+      </c>
+      <c r="G25" s="15"/>
+      <c r="H25" s="15"/>
+      <c r="I25" s="15"/>
+      <c r="J25" s="15"/>
+      <c r="K25" s="15"/>
+      <c r="L25" s="15"/>
+      <c r="M25" s="15"/>
+      <c r="N25" s="15"/>
+      <c r="O25" s="15"/>
+      <c r="P25" s="15"/>
+      <c r="Q25" s="15"/>
+      <c r="R25" s="15"/>
+      <c r="S25" s="15"/>
+      <c r="T25" s="15"/>
+      <c r="U25" s="15"/>
+    </row>
+    <row r="26" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+      <c r="A26" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B26" s="20" t="s">
+        <v>94</v>
+      </c>
+      <c r="C26" s="16">
+        <v>1</v>
+      </c>
+      <c r="D26" s="15"/>
+      <c r="E26" s="15"/>
+      <c r="F26" s="15"/>
+      <c r="G26" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="H26" s="15"/>
+      <c r="I26" s="15"/>
+      <c r="J26" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="K26" s="15"/>
+      <c r="L26" s="21" t="s">
+        <v>97</v>
+      </c>
+      <c r="M26" s="15"/>
+      <c r="N26" s="15"/>
+      <c r="O26" s="15"/>
+      <c r="P26" s="15"/>
+      <c r="Q26" s="15"/>
+      <c r="R26" s="15"/>
+      <c r="S26" s="15"/>
+      <c r="T26" s="15"/>
+      <c r="U26" s="15"/>
+    </row>
+    <row r="27" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+      <c r="A27" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B27" s="20" t="s">
+        <v>95</v>
+      </c>
+      <c r="C27" s="15"/>
+      <c r="D27" s="16">
+        <v>2</v>
+      </c>
+      <c r="E27" s="15"/>
+      <c r="F27" s="15"/>
+      <c r="G27" s="15"/>
+      <c r="H27" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="I27" s="15"/>
+      <c r="J27" s="15"/>
+      <c r="K27" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="L27" s="15"/>
+      <c r="M27" s="21" t="s">
+        <v>97</v>
+      </c>
+      <c r="N27" s="15"/>
+      <c r="O27" s="15"/>
+      <c r="P27" s="15"/>
+      <c r="Q27" s="15"/>
+      <c r="R27" s="15"/>
+      <c r="S27" s="15"/>
+      <c r="T27" s="15"/>
+      <c r="U27" s="15"/>
+    </row>
+    <row r="28" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+      <c r="A28" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B28" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="C28" s="15"/>
+      <c r="D28" s="15"/>
+      <c r="E28" s="16">
+        <v>3</v>
+      </c>
+      <c r="F28" s="15"/>
+      <c r="G28" s="15"/>
+      <c r="H28" s="15"/>
+      <c r="I28" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="J28" s="20" t="s">
+        <v>98</v>
+      </c>
+      <c r="K28" s="20" t="s">
+        <v>99</v>
+      </c>
+      <c r="L28" s="15"/>
+      <c r="M28" s="15"/>
+      <c r="N28" s="15"/>
+      <c r="O28" s="15"/>
+      <c r="P28" s="15"/>
+      <c r="Q28" s="15"/>
+      <c r="R28" s="15"/>
+      <c r="S28" s="15"/>
+      <c r="T28" s="15"/>
+      <c r="U28" s="15"/>
+    </row>
+    <row r="29" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+      <c r="A29" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B29" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="C29" s="15"/>
+      <c r="D29" s="15"/>
+      <c r="E29" s="15"/>
+      <c r="F29" s="16">
+        <v>4</v>
+      </c>
+      <c r="G29" s="15"/>
+      <c r="H29" s="15"/>
+      <c r="I29" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="J29" s="15"/>
+      <c r="K29" s="15"/>
+      <c r="L29" s="20" t="s">
+        <v>98</v>
+      </c>
+      <c r="M29" s="20" t="s">
+        <v>99</v>
+      </c>
+      <c r="N29" s="15"/>
+      <c r="O29" s="15"/>
+      <c r="P29" s="15"/>
+      <c r="Q29" s="15"/>
+      <c r="R29" s="15"/>
+      <c r="S29" s="15"/>
+      <c r="T29" s="15"/>
+      <c r="U29" s="15"/>
+    </row>
+    <row r="30" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+      <c r="A30" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B30" s="15"/>
+      <c r="C30" s="20" t="s">
+        <v>94</v>
+      </c>
+      <c r="D30" s="15"/>
+      <c r="E30" s="15"/>
+      <c r="F30" s="15"/>
+      <c r="G30" s="16">
+        <v>5</v>
+      </c>
+      <c r="H30" s="15"/>
+      <c r="I30" s="15"/>
+      <c r="J30" s="15"/>
+      <c r="K30" s="15"/>
+      <c r="L30" s="15"/>
+      <c r="M30" s="15"/>
+      <c r="N30" s="21" t="s">
+        <v>97</v>
+      </c>
+      <c r="O30" s="15"/>
+      <c r="P30" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q30" s="15"/>
+      <c r="R30" s="15"/>
+      <c r="S30" s="15"/>
+      <c r="T30" s="15"/>
+      <c r="U30" s="15"/>
+    </row>
+    <row r="31" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+      <c r="A31" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B31" s="15"/>
+      <c r="C31" s="15"/>
+      <c r="D31" s="20" t="s">
+        <v>95</v>
+      </c>
+      <c r="E31" s="15"/>
+      <c r="F31" s="15"/>
+      <c r="G31" s="15"/>
+      <c r="H31" s="16">
+        <v>6</v>
+      </c>
+      <c r="I31" s="15"/>
+      <c r="J31" s="15"/>
+      <c r="K31" s="15"/>
+      <c r="L31" s="15"/>
+      <c r="M31" s="15"/>
+      <c r="N31" s="15"/>
+      <c r="O31" s="21" t="s">
+        <v>97</v>
+      </c>
+      <c r="P31" s="15"/>
+      <c r="Q31" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="R31" s="15"/>
+      <c r="S31" s="15"/>
+      <c r="T31" s="15"/>
+      <c r="U31" s="15"/>
+    </row>
+    <row r="32" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+      <c r="A32" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B32" s="15"/>
+      <c r="C32" s="15"/>
+      <c r="D32" s="15"/>
+      <c r="E32" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="F32" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="G32" s="15"/>
+      <c r="H32" s="15"/>
+      <c r="I32" s="16">
+        <v>7</v>
+      </c>
+      <c r="J32" s="15"/>
+      <c r="K32" s="15"/>
+      <c r="L32" s="15"/>
+      <c r="M32" s="15"/>
+      <c r="N32" s="15"/>
+      <c r="O32" s="15"/>
+      <c r="P32" s="15"/>
+      <c r="Q32" s="15"/>
+      <c r="R32" s="20" t="s">
+        <v>98</v>
+      </c>
+      <c r="S32" s="20" t="s">
+        <v>99</v>
+      </c>
+      <c r="T32" s="15"/>
+      <c r="U32" s="15"/>
+    </row>
+    <row r="33" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+      <c r="A33" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B33" s="15"/>
+      <c r="C33" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="D33" s="15"/>
+      <c r="E33" s="20" t="s">
+        <v>94</v>
+      </c>
+      <c r="F33" s="15"/>
+      <c r="G33" s="15"/>
+      <c r="H33" s="15"/>
+      <c r="I33" s="15"/>
+      <c r="J33" s="16">
+        <v>8</v>
+      </c>
+      <c r="K33" s="15"/>
+      <c r="L33" s="15"/>
+      <c r="M33" s="15"/>
+      <c r="N33" s="15"/>
+      <c r="O33" s="15"/>
+      <c r="P33" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q33" s="15"/>
+      <c r="R33" s="21" t="s">
+        <v>97</v>
+      </c>
+      <c r="S33" s="15"/>
+      <c r="T33" s="15"/>
+      <c r="U33" s="15"/>
+    </row>
+    <row r="34" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+      <c r="A34" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B34" s="15"/>
+      <c r="C34" s="15"/>
+      <c r="D34" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="E34" s="20" t="s">
+        <v>95</v>
+      </c>
+      <c r="F34" s="15"/>
+      <c r="G34" s="15"/>
+      <c r="H34" s="15"/>
+      <c r="I34" s="15"/>
+      <c r="J34" s="15"/>
+      <c r="K34" s="16">
+        <v>9</v>
+      </c>
+      <c r="L34" s="15"/>
+      <c r="M34" s="15"/>
+      <c r="N34" s="15"/>
+      <c r="O34" s="15"/>
+      <c r="P34" s="15"/>
+      <c r="Q34" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="R34" s="15"/>
+      <c r="S34" s="21" t="s">
+        <v>97</v>
+      </c>
+      <c r="T34" s="15"/>
+      <c r="U34" s="15"/>
+    </row>
+    <row r="35" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+      <c r="A35" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B35" s="15"/>
+      <c r="C35" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="D35" s="15"/>
+      <c r="E35" s="15"/>
+      <c r="F35" s="20" t="s">
+        <v>94</v>
+      </c>
+      <c r="G35" s="15"/>
+      <c r="H35" s="15"/>
+      <c r="I35" s="15"/>
+      <c r="J35" s="15"/>
+      <c r="K35" s="15"/>
+      <c r="L35" s="16">
+        <v>10</v>
+      </c>
+      <c r="M35" s="15"/>
+      <c r="N35" s="15"/>
+      <c r="O35" s="15"/>
+      <c r="P35" s="15"/>
+      <c r="Q35" s="15"/>
+      <c r="R35" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="S35" s="15"/>
+      <c r="T35" s="15"/>
+      <c r="U35" s="15"/>
+    </row>
+    <row r="36" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+      <c r="A36" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B36" s="15"/>
+      <c r="C36" s="15"/>
+      <c r="D36" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="E36" s="15"/>
+      <c r="F36" s="20" t="s">
+        <v>95</v>
+      </c>
+      <c r="G36" s="15"/>
+      <c r="H36" s="15"/>
+      <c r="I36" s="15"/>
+      <c r="J36" s="15"/>
+      <c r="K36" s="15"/>
+      <c r="L36" s="15"/>
+      <c r="M36" s="16">
+        <v>11</v>
+      </c>
+      <c r="N36" s="15"/>
+      <c r="O36" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="P36" s="15"/>
+      <c r="Q36" s="15"/>
+      <c r="R36" s="15"/>
+      <c r="S36" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="T36" s="15"/>
+      <c r="U36" s="15"/>
+    </row>
+    <row r="37" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+      <c r="A37" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B37" s="15"/>
+      <c r="C37" s="15"/>
+      <c r="D37" s="15"/>
+      <c r="E37" s="15"/>
+      <c r="F37" s="15"/>
+      <c r="G37" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="H37" s="15"/>
+      <c r="I37" s="15"/>
+      <c r="J37" s="15"/>
+      <c r="K37" s="15"/>
+      <c r="L37" s="15"/>
+      <c r="M37" s="15"/>
+      <c r="N37" s="16">
+        <v>12</v>
+      </c>
+      <c r="O37" s="15"/>
+      <c r="P37" s="15"/>
+      <c r="Q37" s="15"/>
+      <c r="R37" s="15"/>
+      <c r="S37" s="15"/>
+      <c r="T37" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="U37" s="15"/>
+    </row>
+    <row r="38" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+      <c r="A38" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B38" s="15"/>
+      <c r="C38" s="15"/>
+      <c r="D38" s="15"/>
+      <c r="E38" s="15"/>
+      <c r="F38" s="15"/>
+      <c r="G38" s="15"/>
+      <c r="H38" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="I38" s="15"/>
+      <c r="J38" s="15"/>
+      <c r="K38" s="15"/>
+      <c r="L38" s="15"/>
+      <c r="M38" s="20" t="s">
+        <v>95</v>
+      </c>
+      <c r="N38" s="15"/>
+      <c r="O38" s="16">
+        <v>13</v>
+      </c>
+      <c r="P38" s="15"/>
+      <c r="Q38" s="15"/>
+      <c r="R38" s="15"/>
+      <c r="S38" s="15"/>
+      <c r="T38" s="15"/>
+      <c r="U38" s="21" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="39" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+      <c r="A39" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B39" s="15"/>
+      <c r="C39" s="15"/>
+      <c r="D39" s="15"/>
+      <c r="E39" s="15"/>
+      <c r="F39" s="15"/>
+      <c r="G39" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="H39" s="15"/>
+      <c r="I39" s="15"/>
+      <c r="J39" s="20" t="s">
+        <v>94</v>
+      </c>
+      <c r="K39" s="15"/>
+      <c r="L39" s="15"/>
+      <c r="M39" s="15"/>
+      <c r="N39" s="15"/>
+      <c r="O39" s="15"/>
+      <c r="P39" s="16">
+        <v>14</v>
+      </c>
+      <c r="Q39" s="15"/>
+      <c r="R39" s="15"/>
+      <c r="S39" s="15"/>
+      <c r="T39" s="21" t="s">
+        <v>97</v>
+      </c>
+      <c r="U39" s="15"/>
+    </row>
+    <row r="40" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+      <c r="A40" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B40" s="15"/>
+      <c r="C40" s="15"/>
+      <c r="D40" s="15"/>
+      <c r="E40" s="15"/>
+      <c r="F40" s="15"/>
+      <c r="G40" s="15"/>
+      <c r="H40" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="I40" s="15"/>
+      <c r="J40" s="15"/>
+      <c r="K40" s="20" t="s">
+        <v>95</v>
+      </c>
+      <c r="L40" s="15"/>
+      <c r="M40" s="15"/>
+      <c r="N40" s="15"/>
+      <c r="O40" s="15"/>
+      <c r="P40" s="15"/>
+      <c r="Q40" s="16">
+        <v>15</v>
+      </c>
+      <c r="R40" s="15"/>
+      <c r="S40" s="15"/>
+      <c r="T40" s="15"/>
+      <c r="U40" s="21" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="41" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+      <c r="A41" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B41" s="15"/>
+      <c r="C41" s="15"/>
+      <c r="D41" s="15"/>
+      <c r="E41" s="15"/>
+      <c r="F41" s="15"/>
+      <c r="G41" s="15"/>
+      <c r="H41" s="15"/>
+      <c r="I41" s="20" t="s">
+        <v>94</v>
+      </c>
+      <c r="J41" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="K41" s="15"/>
+      <c r="L41" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="M41" s="15"/>
+      <c r="N41" s="15"/>
+      <c r="O41" s="15"/>
+      <c r="P41" s="15"/>
+      <c r="Q41" s="15"/>
+      <c r="R41" s="16">
+        <v>16</v>
+      </c>
+      <c r="S41" s="15"/>
+      <c r="T41" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="U41" s="15"/>
+    </row>
+    <row r="42" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+      <c r="A42" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B42" s="15"/>
+      <c r="C42" s="15"/>
+      <c r="D42" s="15"/>
+      <c r="E42" s="15"/>
+      <c r="F42" s="15"/>
+      <c r="G42" s="15"/>
+      <c r="H42" s="15"/>
+      <c r="I42" s="22" t="s">
+        <v>95</v>
+      </c>
+      <c r="J42" s="15"/>
+      <c r="K42" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="L42" s="15"/>
+      <c r="M42" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="N42" s="15"/>
+      <c r="O42" s="15"/>
+      <c r="P42" s="15"/>
+      <c r="Q42" s="15"/>
+      <c r="R42" s="15"/>
+      <c r="S42" s="16">
+        <v>17</v>
+      </c>
+      <c r="T42" s="17"/>
+      <c r="U42" s="21" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="43" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+      <c r="A43" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B43" s="15"/>
+      <c r="C43" s="15"/>
+      <c r="D43" s="15"/>
+      <c r="E43" s="15"/>
+      <c r="F43" s="15"/>
+      <c r="G43" s="15"/>
+      <c r="H43" s="15"/>
+      <c r="I43" s="15"/>
+      <c r="J43" s="15"/>
+      <c r="K43" s="15"/>
+      <c r="L43" s="15"/>
+      <c r="M43" s="15"/>
+      <c r="N43" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="O43" s="15"/>
+      <c r="P43" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q43" s="15"/>
+      <c r="R43" s="20" t="s">
+        <v>94</v>
+      </c>
+      <c r="S43" s="17"/>
+      <c r="T43" s="16">
+        <v>18</v>
+      </c>
+      <c r="U43" s="17"/>
+    </row>
+    <row r="44" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+      <c r="A44" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B44" s="15"/>
+      <c r="C44" s="15"/>
+      <c r="D44" s="15"/>
+      <c r="E44" s="15"/>
+      <c r="F44" s="15"/>
+      <c r="G44" s="15"/>
+      <c r="H44" s="15"/>
+      <c r="I44" s="15"/>
+      <c r="J44" s="15"/>
+      <c r="K44" s="15"/>
+      <c r="L44" s="15"/>
+      <c r="M44" s="15"/>
+      <c r="N44" s="15"/>
+      <c r="O44" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="P44" s="15"/>
+      <c r="Q44" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="R44" s="15"/>
+      <c r="S44" s="20" t="s">
+        <v>95</v>
+      </c>
+      <c r="T44" s="17"/>
+      <c r="U44" s="16">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/modeling/lab2/calc.xlsx
+++ b/modeling/lab2/calc.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10916"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/isobolev/Desktop/itmo/itmo-4course/modeling/lab2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asus\Desktop\itmo-4course\modeling\lab2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4A48E9D-24FF-264A-B51C-F2113D1FE94A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4849CB1-0A54-4215-96AD-7FE478E2FC5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="29000" windowHeight="15680" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="СИСТЕМА_1" sheetId="2" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="498" uniqueCount="102">
   <si>
     <t>C1</t>
   </si>
@@ -335,6 +335,12 @@
   </si>
   <si>
     <t>0.192</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p18 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">p19 </t>
   </si>
 </sst>
 </file>
@@ -461,7 +467,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -503,26 +509,16 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Per cent" xfId="1" builtinId="5"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Процентный" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -802,19 +798,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{580A33A0-FE89-48D7-B93F-7D60624729D1}">
   <dimension ref="A1:Z63"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:S19"/>
+    <sheetView topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="U23" sqref="U23:V58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="11" width="4.6640625" style="1" customWidth="1"/>
     <col min="12" max="19" width="4.6640625" customWidth="1"/>
     <col min="22" max="22" width="11.33203125" customWidth="1"/>
-    <col min="26" max="26" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="12.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -879,7 +875,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="2" spans="1:26" ht="18" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -923,7 +919,7 @@
         <v>0.24</v>
       </c>
     </row>
-    <row r="3" spans="1:26" ht="18" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -967,7 +963,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="4" spans="1:26" ht="18" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
@@ -1013,7 +1009,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="5" spans="1:26" ht="18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
@@ -1058,7 +1054,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:26" ht="18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
@@ -1097,7 +1093,7 @@
         <v>0.112233</v>
       </c>
     </row>
-    <row r="7" spans="1:26" ht="18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
@@ -1136,7 +1132,7 @@
         <v>8.1931000000000004E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:26" ht="18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
@@ -1188,7 +1184,7 @@
         <v>4.6412735805658113E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:26" ht="18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
@@ -1236,7 +1232,7 @@
         <v>-3.5909556748411328E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:26" ht="18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
@@ -1284,7 +1280,7 @@
         <v>-2.7159820041466894E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:26" ht="18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
@@ -1336,7 +1332,7 @@
         <v>-1.9999999998354663E-6</v>
       </c>
     </row>
-    <row r="12" spans="1:26" ht="18" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
         <v>12</v>
       </c>
@@ -1384,7 +1380,7 @@
         <v>-9.7481357243166478E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:26" ht="18" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
         <v>13</v>
       </c>
@@ -1421,7 +1417,7 @@
         <v>4.9692E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:26" ht="18" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
         <v>14</v>
       </c>
@@ -1460,7 +1456,7 @@
         <v>2.759E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:26" ht="18" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
         <v>15</v>
       </c>
@@ -1499,7 +1495,7 @@
         <v>1.9931000000000001E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:26" ht="18" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
         <v>16</v>
       </c>
@@ -1538,7 +1534,7 @@
         <v>7.7118999999999993E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:24" ht="18" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:24" ht="18" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
         <v>17</v>
       </c>
@@ -1577,7 +1573,7 @@
         <v>4.7426999999999997E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:24" ht="18" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:24" ht="18" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
         <v>18</v>
       </c>
@@ -1614,7 +1610,7 @@
         <v>1.8811000000000001E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:24" ht="18" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:24" ht="18" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
         <v>19</v>
       </c>
@@ -1651,7 +1647,7 @@
         <v>4.6281000000000003E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A20"/>
       <c r="B20"/>
       <c r="C20"/>
@@ -1664,7 +1660,7 @@
       <c r="J20"/>
       <c r="K20"/>
     </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A21"/>
       <c r="B21"/>
       <c r="C21"/>
@@ -1677,7 +1673,7 @@
       <c r="J21"/>
       <c r="K21"/>
     </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>0</v>
       </c>
@@ -1736,7 +1732,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>1</v>
       </c>
@@ -1774,7 +1770,7 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="24" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>2</v>
       </c>
@@ -1812,7 +1808,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>3</v>
       </c>
@@ -1852,7 +1848,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="26" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>4</v>
       </c>
@@ -1892,7 +1888,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>5</v>
       </c>
@@ -1933,7 +1929,7 @@
       </c>
       <c r="X27" s="12"/>
     </row>
-    <row r="28" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>6</v>
       </c>
@@ -1974,7 +1970,7 @@
       </c>
       <c r="X28" s="12"/>
     </row>
-    <row r="29" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
         <v>7</v>
       </c>
@@ -2017,7 +2013,7 @@
       </c>
       <c r="X29" s="12"/>
     </row>
-    <row r="30" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
         <v>8</v>
       </c>
@@ -2056,7 +2052,7 @@
       </c>
       <c r="X30" s="12"/>
     </row>
-    <row r="31" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
         <v>9</v>
       </c>
@@ -2095,7 +2091,7 @@
       </c>
       <c r="X31" s="12"/>
     </row>
-    <row r="32" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
         <v>10</v>
       </c>
@@ -2138,7 +2134,7 @@
       </c>
       <c r="X32" s="12"/>
     </row>
-    <row r="33" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
         <v>12</v>
       </c>
@@ -2177,7 +2173,7 @@
       </c>
       <c r="X33" s="12"/>
     </row>
-    <row r="34" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
         <v>13</v>
       </c>
@@ -2216,7 +2212,7 @@
       </c>
       <c r="X34" s="12"/>
     </row>
-    <row r="35" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
         <v>14</v>
       </c>
@@ -2256,7 +2252,7 @@
       </c>
       <c r="X35" s="12"/>
     </row>
-    <row r="36" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
         <v>15</v>
       </c>
@@ -2297,7 +2293,7 @@
       </c>
       <c r="X36" s="12"/>
     </row>
-    <row r="37" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
         <v>16</v>
       </c>
@@ -2338,7 +2334,7 @@
       </c>
       <c r="X37" s="12"/>
     </row>
-    <row r="38" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
         <v>17</v>
       </c>
@@ -2379,7 +2375,7 @@
       </c>
       <c r="X38" s="12"/>
     </row>
-    <row r="39" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
         <v>18</v>
       </c>
@@ -2418,7 +2414,7 @@
       </c>
       <c r="X39" s="12"/>
     </row>
-    <row r="40" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
         <v>19</v>
       </c>
@@ -2457,7 +2453,7 @@
       </c>
       <c r="X40" s="12"/>
     </row>
-    <row r="41" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:24" x14ac:dyDescent="0.3">
       <c r="U41" t="s">
         <v>59</v>
       </c>
@@ -2467,7 +2463,7 @@
       </c>
       <c r="X41" s="12"/>
     </row>
-    <row r="42" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A42"/>
       <c r="B42"/>
       <c r="C42"/>
@@ -2488,7 +2484,7 @@
       </c>
       <c r="X42" s="12"/>
     </row>
-    <row r="43" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A43"/>
       <c r="B43"/>
       <c r="C43"/>
@@ -2509,7 +2505,7 @@
       </c>
       <c r="X43" s="12"/>
     </row>
-    <row r="44" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A44"/>
       <c r="B44"/>
       <c r="C44"/>
@@ -2530,7 +2526,7 @@
       </c>
       <c r="X44" s="12"/>
     </row>
-    <row r="45" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A45"/>
       <c r="B45"/>
       <c r="C45"/>
@@ -2551,7 +2547,7 @@
       </c>
       <c r="X45" s="12"/>
     </row>
-    <row r="46" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A46"/>
       <c r="B46"/>
       <c r="C46"/>
@@ -2572,7 +2568,7 @@
       </c>
       <c r="X46" s="12"/>
     </row>
-    <row r="47" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A47"/>
       <c r="B47"/>
       <c r="C47"/>
@@ -2593,7 +2589,7 @@
       </c>
       <c r="X47" s="12"/>
     </row>
-    <row r="48" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A48"/>
       <c r="B48"/>
       <c r="C48"/>
@@ -2614,7 +2610,7 @@
       </c>
       <c r="X48" s="12"/>
     </row>
-    <row r="49" spans="21:24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="21:24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="U49" t="s">
         <v>61</v>
       </c>
@@ -2624,7 +2620,7 @@
       </c>
       <c r="X49" s="12"/>
     </row>
-    <row r="50" spans="21:24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="21:24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="U50" t="s">
         <v>39</v>
       </c>
@@ -2634,7 +2630,7 @@
       </c>
       <c r="X50" s="12"/>
     </row>
-    <row r="51" spans="21:24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="21:24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="U51" t="s">
         <v>40</v>
       </c>
@@ -2644,7 +2640,7 @@
       </c>
       <c r="X51" s="12"/>
     </row>
-    <row r="52" spans="21:24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="21:24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="U52" t="s">
         <v>41</v>
       </c>
@@ -2654,7 +2650,7 @@
       </c>
       <c r="X52" s="12"/>
     </row>
-    <row r="53" spans="21:24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="21:24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="U53" t="s">
         <v>62</v>
       </c>
@@ -2664,7 +2660,7 @@
       </c>
       <c r="X53" s="12"/>
     </row>
-    <row r="54" spans="21:24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="21:24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="U54" t="s">
         <v>42</v>
       </c>
@@ -2674,7 +2670,7 @@
       </c>
       <c r="X54" s="12"/>
     </row>
-    <row r="55" spans="21:24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="21:24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="U55" t="s">
         <v>43</v>
       </c>
@@ -2684,7 +2680,7 @@
       </c>
       <c r="X55" s="12"/>
     </row>
-    <row r="56" spans="21:24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="21:24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="U56" t="s">
         <v>44</v>
       </c>
@@ -2694,7 +2690,7 @@
       </c>
       <c r="X56" s="12"/>
     </row>
-    <row r="57" spans="21:24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="21:24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="U57" t="s">
         <v>63</v>
       </c>
@@ -2704,7 +2700,7 @@
       </c>
       <c r="X57" s="12"/>
     </row>
-    <row r="58" spans="21:24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="21:24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="U58" t="s">
         <v>45</v>
       </c>
@@ -2714,10 +2710,10 @@
       </c>
       <c r="X58" s="12"/>
     </row>
-    <row r="59" spans="21:24" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="60" spans="21:24" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="61" spans="21:24" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="63" spans="21:24" x14ac:dyDescent="0.2">
+    <row r="59" spans="21:24" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="60" spans="21:24" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="61" spans="21:24" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="63" spans="21:24" x14ac:dyDescent="0.3">
       <c r="V63" s="10" t="e">
         <f>V58-#REF!</f>
         <v>#REF!</v>
@@ -2732,15 +2728,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE6EDCF2-97D5-CC41-A133-1E343AE07A97}">
-  <dimension ref="A1:AF44"/>
+  <dimension ref="A1:AE59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C17" workbookViewId="0">
-      <selection activeCell="K42" sqref="K42"/>
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="63" zoomScaleNormal="63" workbookViewId="0">
+      <selection activeCell="X20" sqref="X1:X20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:31" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2804,17 +2800,20 @@
       <c r="U1" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="AB1" s="18"/>
-      <c r="AC1" s="18"/>
-      <c r="AD1" s="19" t="s">
+      <c r="W1" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="X1">
+        <v>1.2767000000000001E-2</v>
+      </c>
+      <c r="AD1" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="AE1" s="18" t="s">
+      <c r="AE1" t="s">
         <v>96</v>
       </c>
-      <c r="AF1" s="18"/>
-    </row>
-    <row r="2" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:31" ht="18" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -2848,17 +2847,20 @@
       <c r="S2" s="15"/>
       <c r="T2" s="15"/>
       <c r="U2" s="15"/>
-      <c r="AB2" s="18"/>
-      <c r="AC2" s="18"/>
-      <c r="AD2" s="19" t="s">
+      <c r="W2" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="X2">
+        <v>2.6495999999999999E-2</v>
+      </c>
+      <c r="AD2" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="AE2" s="18" t="s">
+      <c r="AE2" t="s">
         <v>93</v>
       </c>
-      <c r="AF2" s="18"/>
-    </row>
-    <row r="3" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:31" ht="18" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -2892,17 +2894,20 @@
       <c r="S3" s="15"/>
       <c r="T3" s="15"/>
       <c r="U3" s="15"/>
-      <c r="AB3" s="18"/>
-      <c r="AC3" s="18"/>
-      <c r="AD3" s="19" t="s">
+      <c r="W3" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="X3">
+        <v>4.6160000000000003E-3</v>
+      </c>
+      <c r="AD3" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="AE3" s="18" t="s">
+      <c r="AE3" t="s">
         <v>97</v>
       </c>
-      <c r="AF3" s="18"/>
-    </row>
-    <row r="4" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:31" ht="18" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
@@ -2936,17 +2941,20 @@
       <c r="S4" s="15"/>
       <c r="T4" s="15"/>
       <c r="U4" s="15"/>
-      <c r="AB4" s="18"/>
-      <c r="AC4" s="18"/>
-      <c r="AD4" s="19" t="s">
+      <c r="W4" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="X4">
+        <v>1.1986999999999999E-2</v>
+      </c>
+      <c r="AD4" s="17" t="s">
         <v>89</v>
       </c>
-      <c r="AE4" s="18" t="s">
+      <c r="AE4" t="s">
         <v>98</v>
       </c>
-      <c r="AF4" s="18"/>
-    </row>
-    <row r="5" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:31" ht="18" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
@@ -2980,17 +2988,20 @@
       <c r="S5" s="15"/>
       <c r="T5" s="15"/>
       <c r="U5" s="15"/>
-      <c r="AB5" s="18"/>
-      <c r="AC5" s="18"/>
-      <c r="AD5" s="19" t="s">
+      <c r="W5" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="X5">
+        <v>8.2539999999999992E-3</v>
+      </c>
+      <c r="AD5" s="17" t="s">
         <v>90</v>
       </c>
-      <c r="AE5" s="18" t="s">
+      <c r="AE5" t="s">
         <v>99</v>
       </c>
-      <c r="AF5" s="18"/>
-    </row>
-    <row r="6" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:31" ht="18" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
@@ -3024,17 +3035,20 @@
       <c r="S6" s="15"/>
       <c r="T6" s="15"/>
       <c r="U6" s="15"/>
-      <c r="AB6" s="18"/>
-      <c r="AC6" s="18"/>
-      <c r="AD6" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="AE6" s="18" t="s">
+      <c r="W6" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="X6">
+        <v>0.265482</v>
+      </c>
+      <c r="AD6" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="AE6" t="s">
         <v>93</v>
       </c>
-      <c r="AF6" s="18"/>
-    </row>
-    <row r="7" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:31" ht="18" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
@@ -3066,17 +3080,20 @@
       <c r="S7" s="15"/>
       <c r="T7" s="15"/>
       <c r="U7" s="15"/>
-      <c r="AB7" s="18"/>
-      <c r="AC7" s="18"/>
-      <c r="AD7" s="19" t="s">
+      <c r="W7" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="X7">
+        <v>2.075E-3</v>
+      </c>
+      <c r="AD7" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="AE7" s="18" t="s">
+      <c r="AE7" t="s">
         <v>94</v>
       </c>
-      <c r="AF7" s="18"/>
-    </row>
-    <row r="8" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:31" ht="18" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
@@ -3108,17 +3125,20 @@
       <c r="S8" s="15"/>
       <c r="T8" s="15"/>
       <c r="U8" s="15"/>
-      <c r="AB8" s="18"/>
-      <c r="AC8" s="18"/>
-      <c r="AD8" s="19" t="s">
+      <c r="W8" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="X8">
+        <v>9.5490000000000002E-3</v>
+      </c>
+      <c r="AD8" s="17" t="s">
         <v>92</v>
       </c>
-      <c r="AE8" s="18" t="s">
+      <c r="AE8" t="s">
         <v>95</v>
       </c>
-      <c r="AF8" s="18"/>
-    </row>
-    <row r="9" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:31" ht="18" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
@@ -3152,13 +3172,14 @@
       </c>
       <c r="T9" s="15"/>
       <c r="U9" s="15"/>
-      <c r="AB9" s="18"/>
-      <c r="AC9" s="18"/>
-      <c r="AD9" s="18"/>
-      <c r="AE9" s="18"/>
-      <c r="AF9" s="18"/>
-    </row>
-    <row r="10" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+      <c r="W9" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="X9">
+        <v>2.6435E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31" ht="18" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
@@ -3192,8 +3213,14 @@
       <c r="S10" s="15"/>
       <c r="T10" s="15"/>
       <c r="U10" s="15"/>
-    </row>
-    <row r="11" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+      <c r="W10" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="X10">
+        <v>4.5440000000000003E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31" ht="18" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
@@ -3227,8 +3254,14 @@
       </c>
       <c r="T11" s="15"/>
       <c r="U11" s="15"/>
-    </row>
-    <row r="12" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+      <c r="W11" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="X11">
+        <v>1.6062E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:31" ht="18" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
         <v>12</v>
       </c>
@@ -3260,8 +3293,14 @@
       <c r="S12" s="15"/>
       <c r="T12" s="15"/>
       <c r="U12" s="15"/>
-    </row>
-    <row r="13" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+      <c r="W12" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="X12">
+        <v>2.8779999999999999E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" ht="18" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
         <v>13</v>
       </c>
@@ -3295,8 +3334,14 @@
       </c>
       <c r="T13" s="15"/>
       <c r="U13" s="15"/>
-    </row>
-    <row r="14" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+      <c r="W13" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="X13">
+        <v>0.15942100000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" ht="18" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
         <v>14</v>
       </c>
@@ -3326,8 +3371,14 @@
         <v>21</v>
       </c>
       <c r="U14" s="15"/>
-    </row>
-    <row r="15" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+      <c r="W14" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="X14">
+        <v>1.1169999999999999E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" ht="18" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
         <v>15</v>
       </c>
@@ -3359,8 +3410,14 @@
       <c r="U15" s="15" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="16" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+      <c r="W15" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="X15">
+        <v>0.26547700000000002</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" ht="18" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
         <v>16</v>
       </c>
@@ -3392,8 +3449,14 @@
         <v>22</v>
       </c>
       <c r="U16" s="15"/>
-    </row>
-    <row r="17" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+      <c r="W16" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="X16">
+        <v>2.1229999999999999E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24" ht="18" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
         <v>17</v>
       </c>
@@ -3425,8 +3488,14 @@
       <c r="U17" s="15" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="18" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+      <c r="W17" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="X17">
+        <v>1.6121E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24" ht="18" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
         <v>18</v>
       </c>
@@ -3460,8 +3529,14 @@
         <v>20</v>
       </c>
       <c r="U18" s="15"/>
-    </row>
-    <row r="19" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+      <c r="W18" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="X18">
+        <v>3.3779999999999999E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24" ht="18" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
         <v>19</v>
       </c>
@@ -3491,12 +3566,18 @@
       <c r="S19" s="16">
         <v>17</v>
       </c>
-      <c r="T19" s="17"/>
+      <c r="T19" s="15"/>
       <c r="U19" s="15" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="20" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+      <c r="W19" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="X19">
+        <v>0.159552</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24" ht="18" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
         <v>87</v>
       </c>
@@ -3523,13 +3604,19 @@
       <c r="R20" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="S20" s="17"/>
+      <c r="S20" s="15"/>
       <c r="T20" s="16">
         <v>18</v>
       </c>
-      <c r="U20" s="17"/>
-    </row>
-    <row r="21" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+      <c r="U20" s="15"/>
+      <c r="W20" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="X20">
+        <v>1.6659999999999999E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>88</v>
       </c>
@@ -3557,12 +3644,12 @@
       <c r="S21" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="T21" s="17"/>
+      <c r="T21" s="15"/>
       <c r="U21" s="16">
         <v>19</v>
       </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>0</v>
       </c>
@@ -3626,24 +3713,27 @@
       <c r="U24" s="2" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="25" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+      <c r="W24" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="25" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B25" s="16">
         <v>0</v>
       </c>
-      <c r="C25" s="20" t="s">
+      <c r="C25" s="18" t="s">
         <v>98</v>
       </c>
-      <c r="D25" s="20" t="s">
+      <c r="D25" s="18" t="s">
         <v>99</v>
       </c>
-      <c r="E25" s="21" t="s">
+      <c r="E25" s="18" t="s">
         <v>93</v>
       </c>
-      <c r="F25" s="21" t="s">
+      <c r="F25" s="18" t="s">
         <v>97</v>
       </c>
       <c r="G25" s="15"/>
@@ -3661,12 +3751,15 @@
       <c r="S25" s="15"/>
       <c r="T25" s="15"/>
       <c r="U25" s="15"/>
-    </row>
-    <row r="26" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+      <c r="W25" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="26" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B26" s="20" t="s">
+      <c r="B26" s="18" t="s">
         <v>94</v>
       </c>
       <c r="C26" s="16">
@@ -3675,16 +3768,16 @@
       <c r="D26" s="15"/>
       <c r="E26" s="15"/>
       <c r="F26" s="15"/>
-      <c r="G26" s="21" t="s">
+      <c r="G26" s="18" t="s">
         <v>96</v>
       </c>
       <c r="H26" s="15"/>
       <c r="I26" s="15"/>
-      <c r="J26" s="21" t="s">
+      <c r="J26" s="18" t="s">
         <v>93</v>
       </c>
       <c r="K26" s="15"/>
-      <c r="L26" s="21" t="s">
+      <c r="L26" s="18" t="s">
         <v>97</v>
       </c>
       <c r="M26" s="15"/>
@@ -3696,12 +3789,15 @@
       <c r="S26" s="15"/>
       <c r="T26" s="15"/>
       <c r="U26" s="15"/>
-    </row>
-    <row r="27" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+      <c r="W26" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="27" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B27" s="20" t="s">
+      <c r="B27" s="18" t="s">
         <v>95</v>
       </c>
       <c r="C27" s="15"/>
@@ -3711,16 +3807,16 @@
       <c r="E27" s="15"/>
       <c r="F27" s="15"/>
       <c r="G27" s="15"/>
-      <c r="H27" s="21" t="s">
+      <c r="H27" s="18" t="s">
         <v>96</v>
       </c>
       <c r="I27" s="15"/>
       <c r="J27" s="15"/>
-      <c r="K27" s="21" t="s">
+      <c r="K27" s="18" t="s">
         <v>93</v>
       </c>
       <c r="L27" s="15"/>
-      <c r="M27" s="21" t="s">
+      <c r="M27" s="18" t="s">
         <v>97</v>
       </c>
       <c r="N27" s="15"/>
@@ -3731,12 +3827,15 @@
       <c r="S27" s="15"/>
       <c r="T27" s="15"/>
       <c r="U27" s="15"/>
-    </row>
-    <row r="28" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+      <c r="W27" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="28" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B28" s="20" t="s">
+      <c r="B28" s="18" t="s">
         <v>93</v>
       </c>
       <c r="C28" s="15"/>
@@ -3747,13 +3846,13 @@
       <c r="F28" s="15"/>
       <c r="G28" s="15"/>
       <c r="H28" s="15"/>
-      <c r="I28" s="21" t="s">
+      <c r="I28" s="18" t="s">
         <v>93</v>
       </c>
-      <c r="J28" s="20" t="s">
+      <c r="J28" s="18" t="s">
         <v>98</v>
       </c>
-      <c r="K28" s="20" t="s">
+      <c r="K28" s="18" t="s">
         <v>99</v>
       </c>
       <c r="L28" s="15"/>
@@ -3766,12 +3865,16 @@
       <c r="S28" s="15"/>
       <c r="T28" s="15"/>
       <c r="U28" s="15"/>
-    </row>
-    <row r="29" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+      <c r="W28" t="s">
+        <v>23</v>
+      </c>
+      <c r="X28" s="10"/>
+    </row>
+    <row r="29" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B29" s="20" t="s">
+      <c r="B29" s="18" t="s">
         <v>93</v>
       </c>
       <c r="C29" s="15"/>
@@ -3782,15 +3885,15 @@
       </c>
       <c r="G29" s="15"/>
       <c r="H29" s="15"/>
-      <c r="I29" s="21" t="s">
+      <c r="I29" s="18" t="s">
         <v>93</v>
       </c>
       <c r="J29" s="15"/>
       <c r="K29" s="15"/>
-      <c r="L29" s="20" t="s">
+      <c r="L29" s="18" t="s">
         <v>98</v>
       </c>
-      <c r="M29" s="20" t="s">
+      <c r="M29" s="18" t="s">
         <v>99</v>
       </c>
       <c r="N29" s="15"/>
@@ -3801,13 +3904,17 @@
       <c r="S29" s="15"/>
       <c r="T29" s="15"/>
       <c r="U29" s="15"/>
-    </row>
-    <row r="30" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+      <c r="W29" t="s">
+        <v>24</v>
+      </c>
+      <c r="X29" s="10"/>
+    </row>
+    <row r="30" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B30" s="15"/>
-      <c r="C30" s="20" t="s">
+      <c r="C30" s="18" t="s">
         <v>94</v>
       </c>
       <c r="D30" s="15"/>
@@ -3822,11 +3929,11 @@
       <c r="K30" s="15"/>
       <c r="L30" s="15"/>
       <c r="M30" s="15"/>
-      <c r="N30" s="21" t="s">
+      <c r="N30" s="18" t="s">
         <v>97</v>
       </c>
       <c r="O30" s="15"/>
-      <c r="P30" s="21" t="s">
+      <c r="P30" s="18" t="s">
         <v>93</v>
       </c>
       <c r="Q30" s="15"/>
@@ -3834,14 +3941,18 @@
       <c r="S30" s="15"/>
       <c r="T30" s="15"/>
       <c r="U30" s="15"/>
-    </row>
-    <row r="31" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+      <c r="W30" t="s">
+        <v>53</v>
+      </c>
+      <c r="X30" s="10"/>
+    </row>
+    <row r="31" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B31" s="15"/>
       <c r="C31" s="15"/>
-      <c r="D31" s="20" t="s">
+      <c r="D31" s="18" t="s">
         <v>95</v>
       </c>
       <c r="E31" s="15"/>
@@ -3856,29 +3967,33 @@
       <c r="L31" s="15"/>
       <c r="M31" s="15"/>
       <c r="N31" s="15"/>
-      <c r="O31" s="21" t="s">
+      <c r="O31" s="18" t="s">
         <v>97</v>
       </c>
       <c r="P31" s="15"/>
-      <c r="Q31" s="21" t="s">
+      <c r="Q31" s="18" t="s">
         <v>93</v>
       </c>
       <c r="R31" s="15"/>
       <c r="S31" s="15"/>
       <c r="T31" s="15"/>
       <c r="U31" s="15"/>
-    </row>
-    <row r="32" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+      <c r="W31" t="s">
+        <v>25</v>
+      </c>
+      <c r="X31" s="10"/>
+    </row>
+    <row r="32" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B32" s="15"/>
       <c r="C32" s="15"/>
       <c r="D32" s="15"/>
-      <c r="E32" s="20" t="s">
+      <c r="E32" s="18" t="s">
         <v>93</v>
       </c>
-      <c r="F32" s="20" t="s">
+      <c r="F32" s="18" t="s">
         <v>93</v>
       </c>
       <c r="G32" s="15"/>
@@ -3894,25 +4009,29 @@
       <c r="O32" s="15"/>
       <c r="P32" s="15"/>
       <c r="Q32" s="15"/>
-      <c r="R32" s="20" t="s">
+      <c r="R32" s="18" t="s">
         <v>98</v>
       </c>
-      <c r="S32" s="20" t="s">
+      <c r="S32" s="18" t="s">
         <v>99</v>
       </c>
       <c r="T32" s="15"/>
       <c r="U32" s="15"/>
-    </row>
-    <row r="33" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+      <c r="W32" t="s">
+        <v>54</v>
+      </c>
+      <c r="X32" s="10"/>
+    </row>
+    <row r="33" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B33" s="15"/>
-      <c r="C33" s="20" t="s">
+      <c r="C33" s="18" t="s">
         <v>93</v>
       </c>
       <c r="D33" s="15"/>
-      <c r="E33" s="20" t="s">
+      <c r="E33" s="18" t="s">
         <v>94</v>
       </c>
       <c r="F33" s="15"/>
@@ -3927,27 +4046,31 @@
       <c r="M33" s="15"/>
       <c r="N33" s="15"/>
       <c r="O33" s="15"/>
-      <c r="P33" s="21" t="s">
+      <c r="P33" s="18" t="s">
         <v>96</v>
       </c>
       <c r="Q33" s="15"/>
-      <c r="R33" s="21" t="s">
+      <c r="R33" s="18" t="s">
         <v>97</v>
       </c>
       <c r="S33" s="15"/>
       <c r="T33" s="15"/>
       <c r="U33" s="15"/>
-    </row>
-    <row r="34" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+      <c r="W33" t="s">
+        <v>55</v>
+      </c>
+      <c r="X33" s="10"/>
+    </row>
+    <row r="34" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B34" s="15"/>
       <c r="C34" s="15"/>
-      <c r="D34" s="20" t="s">
+      <c r="D34" s="18" t="s">
         <v>93</v>
       </c>
-      <c r="E34" s="20" t="s">
+      <c r="E34" s="18" t="s">
         <v>95</v>
       </c>
       <c r="F34" s="15"/>
@@ -3963,27 +4086,31 @@
       <c r="N34" s="15"/>
       <c r="O34" s="15"/>
       <c r="P34" s="15"/>
-      <c r="Q34" s="21" t="s">
+      <c r="Q34" s="18" t="s">
         <v>96</v>
       </c>
       <c r="R34" s="15"/>
-      <c r="S34" s="21" t="s">
+      <c r="S34" s="18" t="s">
         <v>97</v>
       </c>
       <c r="T34" s="15"/>
       <c r="U34" s="15"/>
-    </row>
-    <row r="35" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+      <c r="W34" t="s">
+        <v>56</v>
+      </c>
+      <c r="X34" s="10"/>
+    </row>
+    <row r="35" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B35" s="15"/>
-      <c r="C35" s="20" t="s">
+      <c r="C35" s="18" t="s">
         <v>93</v>
       </c>
       <c r="D35" s="15"/>
       <c r="E35" s="15"/>
-      <c r="F35" s="20" t="s">
+      <c r="F35" s="18" t="s">
         <v>94</v>
       </c>
       <c r="G35" s="15"/>
@@ -3999,24 +4126,28 @@
       <c r="O35" s="15"/>
       <c r="P35" s="15"/>
       <c r="Q35" s="15"/>
-      <c r="R35" s="21" t="s">
+      <c r="R35" s="18" t="s">
         <v>93</v>
       </c>
       <c r="S35" s="15"/>
       <c r="T35" s="15"/>
       <c r="U35" s="15"/>
-    </row>
-    <row r="36" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+      <c r="W35" t="s">
+        <v>57</v>
+      </c>
+      <c r="X35" s="10"/>
+    </row>
+    <row r="36" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B36" s="15"/>
       <c r="C36" s="15"/>
-      <c r="D36" s="20" t="s">
+      <c r="D36" s="18" t="s">
         <v>93</v>
       </c>
       <c r="E36" s="15"/>
-      <c r="F36" s="20" t="s">
+      <c r="F36" s="18" t="s">
         <v>95</v>
       </c>
       <c r="G36" s="15"/>
@@ -4029,19 +4160,23 @@
         <v>11</v>
       </c>
       <c r="N36" s="15"/>
-      <c r="O36" s="21" t="s">
+      <c r="O36" s="18" t="s">
         <v>96</v>
       </c>
       <c r="P36" s="15"/>
       <c r="Q36" s="15"/>
       <c r="R36" s="15"/>
-      <c r="S36" s="21" t="s">
+      <c r="S36" s="18" t="s">
         <v>93</v>
       </c>
       <c r="T36" s="15"/>
       <c r="U36" s="15"/>
-    </row>
-    <row r="37" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+      <c r="W36" t="s">
+        <v>26</v>
+      </c>
+      <c r="X36" s="10"/>
+    </row>
+    <row r="37" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
         <v>14</v>
       </c>
@@ -4050,7 +4185,7 @@
       <c r="D37" s="15"/>
       <c r="E37" s="15"/>
       <c r="F37" s="15"/>
-      <c r="G37" s="20" t="s">
+      <c r="G37" s="18" t="s">
         <v>93</v>
       </c>
       <c r="H37" s="15"/>
@@ -4067,12 +4202,16 @@
       <c r="Q37" s="15"/>
       <c r="R37" s="15"/>
       <c r="S37" s="15"/>
-      <c r="T37" s="21" t="s">
+      <c r="T37" s="18" t="s">
         <v>93</v>
       </c>
       <c r="U37" s="15"/>
-    </row>
-    <row r="38" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+      <c r="W37" t="s">
+        <v>27</v>
+      </c>
+      <c r="X37" s="10"/>
+    </row>
+    <row r="38" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
         <v>15</v>
       </c>
@@ -4082,14 +4221,14 @@
       <c r="E38" s="15"/>
       <c r="F38" s="15"/>
       <c r="G38" s="15"/>
-      <c r="H38" s="20" t="s">
+      <c r="H38" s="18" t="s">
         <v>93</v>
       </c>
       <c r="I38" s="15"/>
       <c r="J38" s="15"/>
       <c r="K38" s="15"/>
       <c r="L38" s="15"/>
-      <c r="M38" s="20" t="s">
+      <c r="M38" s="18" t="s">
         <v>95</v>
       </c>
       <c r="N38" s="15"/>
@@ -4101,11 +4240,15 @@
       <c r="R38" s="15"/>
       <c r="S38" s="15"/>
       <c r="T38" s="15"/>
-      <c r="U38" s="21" t="s">
+      <c r="U38" s="18" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="39" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+      <c r="W38" t="s">
+        <v>58</v>
+      </c>
+      <c r="X38" s="10"/>
+    </row>
+    <row r="39" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
         <v>16</v>
       </c>
@@ -4114,12 +4257,12 @@
       <c r="D39" s="15"/>
       <c r="E39" s="15"/>
       <c r="F39" s="15"/>
-      <c r="G39" s="20" t="s">
+      <c r="G39" s="18" t="s">
         <v>93</v>
       </c>
       <c r="H39" s="15"/>
       <c r="I39" s="15"/>
-      <c r="J39" s="20" t="s">
+      <c r="J39" s="18" t="s">
         <v>94</v>
       </c>
       <c r="K39" s="15"/>
@@ -4133,12 +4276,16 @@
       <c r="Q39" s="15"/>
       <c r="R39" s="15"/>
       <c r="S39" s="15"/>
-      <c r="T39" s="21" t="s">
+      <c r="T39" s="18" t="s">
         <v>97</v>
       </c>
       <c r="U39" s="15"/>
-    </row>
-    <row r="40" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+      <c r="W39" t="s">
+        <v>28</v>
+      </c>
+      <c r="X39" s="10"/>
+    </row>
+    <row r="40" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
         <v>17</v>
       </c>
@@ -4148,12 +4295,12 @@
       <c r="E40" s="15"/>
       <c r="F40" s="15"/>
       <c r="G40" s="15"/>
-      <c r="H40" s="20" t="s">
+      <c r="H40" s="18" t="s">
         <v>93</v>
       </c>
       <c r="I40" s="15"/>
       <c r="J40" s="15"/>
-      <c r="K40" s="20" t="s">
+      <c r="K40" s="18" t="s">
         <v>95</v>
       </c>
       <c r="L40" s="15"/>
@@ -4167,11 +4314,15 @@
       <c r="R40" s="15"/>
       <c r="S40" s="15"/>
       <c r="T40" s="15"/>
-      <c r="U40" s="21" t="s">
+      <c r="U40" s="18" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="41" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+      <c r="W40" t="s">
+        <v>29</v>
+      </c>
+      <c r="X40" s="10"/>
+    </row>
+    <row r="41" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
         <v>18</v>
       </c>
@@ -4182,14 +4333,14 @@
       <c r="F41" s="15"/>
       <c r="G41" s="15"/>
       <c r="H41" s="15"/>
-      <c r="I41" s="20" t="s">
+      <c r="I41" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="J41" s="20" t="s">
+      <c r="J41" s="18" t="s">
         <v>93</v>
       </c>
       <c r="K41" s="15"/>
-      <c r="L41" s="20" t="s">
+      <c r="L41" s="18" t="s">
         <v>93</v>
       </c>
       <c r="M41" s="15"/>
@@ -4201,12 +4352,16 @@
         <v>16</v>
       </c>
       <c r="S41" s="15"/>
-      <c r="T41" s="21" t="s">
+      <c r="T41" s="18" t="s">
         <v>96</v>
       </c>
       <c r="U41" s="15"/>
-    </row>
-    <row r="42" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+      <c r="W41" t="s">
+        <v>30</v>
+      </c>
+      <c r="X41" s="10"/>
+    </row>
+    <row r="42" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
         <v>19</v>
       </c>
@@ -4217,15 +4372,15 @@
       <c r="F42" s="15"/>
       <c r="G42" s="15"/>
       <c r="H42" s="15"/>
-      <c r="I42" s="22" t="s">
+      <c r="I42" s="1" t="s">
         <v>95</v>
       </c>
       <c r="J42" s="15"/>
-      <c r="K42" s="20" t="s">
+      <c r="K42" s="18" t="s">
         <v>93</v>
       </c>
       <c r="L42" s="15"/>
-      <c r="M42" s="20" t="s">
+      <c r="M42" s="18" t="s">
         <v>93</v>
       </c>
       <c r="N42" s="15"/>
@@ -4236,12 +4391,16 @@
       <c r="S42" s="16">
         <v>17</v>
       </c>
-      <c r="T42" s="17"/>
-      <c r="U42" s="21" t="s">
+      <c r="T42" s="15"/>
+      <c r="U42" s="18" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="43" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+      <c r="W42" t="s">
+        <v>59</v>
+      </c>
+      <c r="X42" s="10"/>
+    </row>
+    <row r="43" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
         <v>87</v>
       </c>
@@ -4257,24 +4416,28 @@
       <c r="K43" s="15"/>
       <c r="L43" s="15"/>
       <c r="M43" s="15"/>
-      <c r="N43" s="20" t="s">
+      <c r="N43" s="18" t="s">
         <v>93</v>
       </c>
       <c r="O43" s="15"/>
-      <c r="P43" s="20" t="s">
+      <c r="P43" s="18" t="s">
         <v>93</v>
       </c>
       <c r="Q43" s="15"/>
-      <c r="R43" s="20" t="s">
+      <c r="R43" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="S43" s="17"/>
+      <c r="S43" s="15"/>
       <c r="T43" s="16">
         <v>18</v>
       </c>
-      <c r="U43" s="17"/>
-    </row>
-    <row r="44" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+      <c r="U43" s="15"/>
+      <c r="W43" t="s">
+        <v>31</v>
+      </c>
+      <c r="X43" s="10"/>
+    </row>
+    <row r="44" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
         <v>88</v>
       </c>
@@ -4291,21 +4454,115 @@
       <c r="L44" s="15"/>
       <c r="M44" s="15"/>
       <c r="N44" s="15"/>
-      <c r="O44" s="20" t="s">
+      <c r="O44" s="18" t="s">
         <v>93</v>
       </c>
       <c r="P44" s="15"/>
-      <c r="Q44" s="20" t="s">
+      <c r="Q44" s="18" t="s">
         <v>93</v>
       </c>
       <c r="R44" s="15"/>
-      <c r="S44" s="20" t="s">
+      <c r="S44" s="18" t="s">
         <v>95</v>
       </c>
-      <c r="T44" s="17"/>
+      <c r="T44" s="15"/>
       <c r="U44" s="16">
         <v>19</v>
       </c>
+      <c r="W44" t="s">
+        <v>32</v>
+      </c>
+      <c r="X44" s="10"/>
+    </row>
+    <row r="45" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="W45" t="s">
+        <v>33</v>
+      </c>
+      <c r="X45" s="10"/>
+    </row>
+    <row r="46" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="W46" t="s">
+        <v>60</v>
+      </c>
+      <c r="X46" s="10"/>
+    </row>
+    <row r="47" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="W47" t="s">
+        <v>34</v>
+      </c>
+      <c r="X47" s="10"/>
+    </row>
+    <row r="48" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="W48" t="s">
+        <v>37</v>
+      </c>
+      <c r="X48" s="10"/>
+    </row>
+    <row r="49" spans="23:24" x14ac:dyDescent="0.3">
+      <c r="W49" t="s">
+        <v>38</v>
+      </c>
+      <c r="X49" s="10"/>
+    </row>
+    <row r="50" spans="23:24" x14ac:dyDescent="0.3">
+      <c r="W50" t="s">
+        <v>61</v>
+      </c>
+      <c r="X50" s="10"/>
+    </row>
+    <row r="51" spans="23:24" x14ac:dyDescent="0.3">
+      <c r="W51" t="s">
+        <v>39</v>
+      </c>
+      <c r="X51" s="10"/>
+    </row>
+    <row r="52" spans="23:24" x14ac:dyDescent="0.3">
+      <c r="W52" t="s">
+        <v>40</v>
+      </c>
+      <c r="X52" s="10"/>
+    </row>
+    <row r="53" spans="23:24" x14ac:dyDescent="0.3">
+      <c r="W53" t="s">
+        <v>41</v>
+      </c>
+      <c r="X53" s="10"/>
+    </row>
+    <row r="54" spans="23:24" x14ac:dyDescent="0.3">
+      <c r="W54" t="s">
+        <v>62</v>
+      </c>
+      <c r="X54" s="10"/>
+    </row>
+    <row r="55" spans="23:24" x14ac:dyDescent="0.3">
+      <c r="W55" t="s">
+        <v>42</v>
+      </c>
+      <c r="X55" s="10"/>
+    </row>
+    <row r="56" spans="23:24" x14ac:dyDescent="0.3">
+      <c r="W56" t="s">
+        <v>43</v>
+      </c>
+      <c r="X56" s="10"/>
+    </row>
+    <row r="57" spans="23:24" x14ac:dyDescent="0.3">
+      <c r="W57" t="s">
+        <v>44</v>
+      </c>
+      <c r="X57" s="10"/>
+    </row>
+    <row r="58" spans="23:24" x14ac:dyDescent="0.3">
+      <c r="W58" t="s">
+        <v>63</v>
+      </c>
+      <c r="X58" s="10"/>
+    </row>
+    <row r="59" spans="23:24" x14ac:dyDescent="0.3">
+      <c r="W59" t="s">
+        <v>45</v>
+      </c>
+      <c r="X59" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/modeling/lab2/calc.xlsx
+++ b/modeling/lab2/calc.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10916"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asus\Desktop\itmo-4course\modeling\lab2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/isobolev/Desktop/itmo/itmo-4course/modeling/lab2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4849CB1-0A54-4215-96AD-7FE478E2FC5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B5CB8C8-6592-A043-ACC5-AC82E8C13CF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="16660" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="СИСТЕМА_1" sheetId="2" r:id="rId1"/>
     <sheet name="СИСТЕМА_2" sheetId="3" r:id="rId2"/>
+    <sheet name="Сравнение" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="498" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="113">
   <si>
     <t>C1</t>
   </si>
@@ -341,6 +342,39 @@
   </si>
   <si>
     <t xml:space="preserve">p19 </t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>Нагрузка</t>
+  </si>
+  <si>
+    <t>Загрузка</t>
+  </si>
+  <si>
+    <t>Вероятность потери</t>
+  </si>
+  <si>
+    <t>Длина очереди</t>
+  </si>
+  <si>
+    <t>Число заявок в системе</t>
+  </si>
+  <si>
+    <t>Производительность</t>
+  </si>
+  <si>
+    <t>Коэффициент простоя</t>
+  </si>
+  <si>
+    <t>Время ожидания</t>
+  </si>
+  <si>
+    <t>Время пребывания</t>
+  </si>
+  <si>
+    <t>%</t>
   </si>
 </sst>
 </file>
@@ -351,9 +385,16 @@
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.00000%"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -424,6 +465,13 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -439,7 +487,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -462,63 +510,80 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
-    <cellStyle name="Процентный" xfId="1" builtinId="5"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Per cent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -531,6 +596,1012 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU"/>
+              <a:t>Сравнение</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-GB"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Сравнение!$A$1:$A$9</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>Нагрузка</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Загрузка</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Вероятность потери</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Длина очереди</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Число заявок в системе</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Производительность</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Коэффициент простоя</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Время ожидания</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Время пребывания</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Сравнение!$B$1:$B$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.64070532999999996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.54078444999999997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.53734700000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.4594659999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.18368622000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.35929466999999998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.9253528100000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>12.925352800000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-326C-6043-B4D0-282AB2DA76B0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Сравнение!$A$1:$A$9</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>Нагрузка</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Загрузка</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Вероятность потери</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Длина очереди</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Число заявок в системе</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Производительность</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Коэффициент простоя</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Время ожидания</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Время пребывания</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Сравнение!$C$1:$C$9</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.61199999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.69599999999999995</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.85699999999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.6930000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.122</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.38800000000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.048</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>17.047999999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-326C-6043-B4D0-282AB2DA76B0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1654747008"/>
+        <c:axId val="1665912816"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1654747008"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1665912816"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1665912816"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1654747008"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>406400</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>330200</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5F531B05-95F8-6E9C-9952-7FA96D9A66AE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -796,21 +1867,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{580A33A0-FE89-48D7-B93F-7D60624729D1}">
-  <dimension ref="A1:Z63"/>
+  <dimension ref="A1:AA63"/>
   <sheetViews>
-    <sheetView topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="U23" sqref="U23:V58"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="V24" sqref="V24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="11" width="4.6640625" style="1" customWidth="1"/>
     <col min="12" max="19" width="4.6640625" customWidth="1"/>
     <col min="22" max="22" width="11.33203125" customWidth="1"/>
-    <col min="26" max="26" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -875,7 +1947,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="2" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:26" ht="18" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -919,7 +1991,7 @@
         <v>0.24</v>
       </c>
     </row>
-    <row r="3" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:26" ht="18" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -963,7 +2035,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="4" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:26" ht="18" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
@@ -1009,7 +2081,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="5" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:26" ht="18" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
@@ -1054,7 +2126,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:26" ht="18" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
@@ -1093,7 +2165,7 @@
         <v>0.112233</v>
       </c>
     </row>
-    <row r="7" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:26" ht="18" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
@@ -1132,7 +2204,7 @@
         <v>8.1931000000000004E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:26" ht="18" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
@@ -1172,19 +2244,9 @@
       <c r="V8">
         <v>3.2532999999999999E-2</v>
       </c>
-      <c r="X8" t="s">
-        <v>64</v>
-      </c>
-      <c r="Y8">
-        <f>((1-V34)*V26)/3</f>
-        <v>0.61228740000000004</v>
-      </c>
-      <c r="Z8" s="12">
-        <f>(V30-Y8)/Y8</f>
-        <v>4.6412735805658113E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+      <c r="Z8" s="12"/>
+    </row>
+    <row r="9" spans="1:26" ht="18" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
@@ -1220,19 +2282,9 @@
       <c r="V9">
         <v>4.7167000000000001E-2</v>
       </c>
-      <c r="X9" t="s">
-        <v>65</v>
-      </c>
-      <c r="Y9">
-        <f>V46*V58</f>
-        <v>2.3742091999999997</v>
-      </c>
-      <c r="Z9" s="12">
-        <f>(Y9-V42)/Y9</f>
-        <v>-3.5909556748411328E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+      <c r="Z9" s="12"/>
+    </row>
+    <row r="10" spans="1:26" ht="18" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
@@ -1268,19 +2320,9 @@
       <c r="V10">
         <v>2.1871000000000002E-2</v>
       </c>
-      <c r="X10" t="s">
-        <v>66</v>
-      </c>
-      <c r="Y10">
-        <f>V43*V55</f>
-        <v>0.69260399999999989</v>
-      </c>
-      <c r="Z10" s="12">
-        <f>(Y10-V39)/Y10</f>
-        <v>-2.7159820041466894E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+      <c r="Z10" s="12"/>
+    </row>
+    <row r="11" spans="1:26" ht="18" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
@@ -1320,19 +2362,9 @@
       <c r="V11">
         <v>7.6498999999999998E-2</v>
       </c>
-      <c r="X11" t="s">
-        <v>67</v>
-      </c>
-      <c r="Y11">
-        <f>V44*V56</f>
-        <v>1.0000000000000002</v>
-      </c>
-      <c r="Z11" s="13">
-        <f>(Y11-V40)/Y11</f>
-        <v>-1.9999999998354663E-6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+      <c r="Z11" s="13"/>
+    </row>
+    <row r="12" spans="1:26" ht="18" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>12</v>
       </c>
@@ -1368,19 +2400,9 @@
       <c r="V12">
         <v>0.116366</v>
       </c>
-      <c r="X12" t="s">
-        <v>68</v>
-      </c>
-      <c r="Y12">
-        <f>V45*V57</f>
-        <v>0.68160520000000002</v>
-      </c>
-      <c r="Z12" s="13">
-        <f t="shared" ref="Z12" si="0">(Y12-V41)/Y12</f>
-        <v>-9.7481357243166478E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+      <c r="Z12" s="13"/>
+    </row>
+    <row r="13" spans="1:26" ht="18" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>13</v>
       </c>
@@ -1417,7 +2439,7 @@
         <v>4.9692E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:26" ht="18" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>14</v>
       </c>
@@ -1456,7 +2478,7 @@
         <v>2.759E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:26" ht="18" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>15</v>
       </c>
@@ -1495,7 +2517,7 @@
         <v>1.9931000000000001E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:26" ht="18" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>16</v>
       </c>
@@ -1534,7 +2556,7 @@
         <v>7.7118999999999993E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:24" ht="18" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:27" ht="18" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>17</v>
       </c>
@@ -1573,7 +2595,7 @@
         <v>4.7426999999999997E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:24" ht="18" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:27" ht="18" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>18</v>
       </c>
@@ -1610,7 +2632,7 @@
         <v>1.8811000000000001E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:24" ht="18" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:27" ht="18" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>19</v>
       </c>
@@ -1647,7 +2669,7 @@
         <v>4.6281000000000003E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A20"/>
       <c r="B20"/>
       <c r="C20"/>
@@ -1660,7 +2682,7 @@
       <c r="J20"/>
       <c r="K20"/>
     </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A21"/>
       <c r="B21"/>
       <c r="C21"/>
@@ -1673,7 +2695,7 @@
       <c r="J21"/>
       <c r="K21"/>
     </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>0</v>
       </c>
@@ -1732,7 +2754,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>1</v>
       </c>
@@ -1769,8 +2791,19 @@
         <f>Y2*Y5</f>
         <v>2.4</v>
       </c>
-    </row>
-    <row r="24" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="Y23" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z23">
+        <f>((1-V34)*V26)/3</f>
+        <v>0.61228740000000004</v>
+      </c>
+      <c r="AA23" s="13">
+        <f>(Z23-V30)/Z23</f>
+        <v>-4.6412735805658113E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>2</v>
       </c>
@@ -1807,8 +2840,19 @@
         <f>Y3*Y5</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="Y24" t="s">
+        <v>65</v>
+      </c>
+      <c r="Z24">
+        <f>V46*V58</f>
+        <v>2.3742091999999997</v>
+      </c>
+      <c r="AA24" s="13">
+        <f>(Z24-V42)/Z24</f>
+        <v>-3.5909556748411328E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>3</v>
       </c>
@@ -1847,8 +2891,19 @@
         <f>Y4*Y5</f>
         <v>0.6</v>
       </c>
-    </row>
-    <row r="26" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="Y25" t="s">
+        <v>66</v>
+      </c>
+      <c r="Z25">
+        <f>V43*V55</f>
+        <v>0.69260399999999989</v>
+      </c>
+      <c r="AA25" s="12">
+        <f>(Z25-V39)/Z25</f>
+        <v>-2.7159820041466894E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>4</v>
       </c>
@@ -1887,8 +2942,19 @@
         <f>V23+V24+V25</f>
         <v>4</v>
       </c>
-    </row>
-    <row r="27" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="Y26" t="s">
+        <v>67</v>
+      </c>
+      <c r="Z26">
+        <f>V44*V56</f>
+        <v>1.0000000000000002</v>
+      </c>
+      <c r="AA26" s="12">
+        <f>(Z26-V40)/Z26</f>
+        <v>-1.9999999998354663E-6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>5</v>
       </c>
@@ -1928,8 +2994,19 @@
         <v>0.71141399999999999</v>
       </c>
       <c r="X27" s="12"/>
-    </row>
-    <row r="28" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="Y27" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z27">
+        <f>V45*V57</f>
+        <v>0.68160520000000002</v>
+      </c>
+      <c r="AA27" s="12">
+        <f t="shared" ref="AA27" si="0">(Z27-V41)/Z27</f>
+        <v>-9.7481357243166478E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>6</v>
       </c>
@@ -1970,7 +3047,7 @@
       </c>
       <c r="X28" s="12"/>
     </row>
-    <row r="29" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>7</v>
       </c>
@@ -2013,7 +3090,7 @@
       </c>
       <c r="X29" s="12"/>
     </row>
-    <row r="30" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
         <v>8</v>
       </c>
@@ -2052,7 +3129,7 @@
       </c>
       <c r="X30" s="12"/>
     </row>
-    <row r="31" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
         <v>9</v>
       </c>
@@ -2091,7 +3168,7 @@
       </c>
       <c r="X31" s="12"/>
     </row>
-    <row r="32" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
         <v>10</v>
       </c>
@@ -2134,7 +3211,7 @@
       </c>
       <c r="X32" s="12"/>
     </row>
-    <row r="33" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:24" ht="16" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
         <v>12</v>
       </c>
@@ -2173,7 +3250,7 @@
       </c>
       <c r="X33" s="12"/>
     </row>
-    <row r="34" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:24" ht="16" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
         <v>13</v>
       </c>
@@ -2212,7 +3289,7 @@
       </c>
       <c r="X34" s="12"/>
     </row>
-    <row r="35" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:24" ht="16" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
         <v>14</v>
       </c>
@@ -2252,7 +3329,7 @@
       </c>
       <c r="X35" s="12"/>
     </row>
-    <row r="36" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:24" ht="16" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
         <v>15</v>
       </c>
@@ -2293,7 +3370,7 @@
       </c>
       <c r="X36" s="12"/>
     </row>
-    <row r="37" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:24" ht="16" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
         <v>16</v>
       </c>
@@ -2334,7 +3411,7 @@
       </c>
       <c r="X37" s="12"/>
     </row>
-    <row r="38" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:24" ht="16" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
         <v>17</v>
       </c>
@@ -2375,7 +3452,7 @@
       </c>
       <c r="X38" s="12"/>
     </row>
-    <row r="39" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:24" ht="16" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
         <v>18</v>
       </c>
@@ -2414,7 +3491,7 @@
       </c>
       <c r="X39" s="12"/>
     </row>
-    <row r="40" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:24" ht="16" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
         <v>19</v>
       </c>
@@ -2453,7 +3530,7 @@
       </c>
       <c r="X40" s="12"/>
     </row>
-    <row r="41" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:24" x14ac:dyDescent="0.2">
       <c r="U41" t="s">
         <v>59</v>
       </c>
@@ -2463,7 +3540,7 @@
       </c>
       <c r="X41" s="12"/>
     </row>
-    <row r="42" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A42"/>
       <c r="B42"/>
       <c r="C42"/>
@@ -2484,7 +3561,7 @@
       </c>
       <c r="X42" s="12"/>
     </row>
-    <row r="43" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A43"/>
       <c r="B43"/>
       <c r="C43"/>
@@ -2505,7 +3582,7 @@
       </c>
       <c r="X43" s="12"/>
     </row>
-    <row r="44" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A44"/>
       <c r="B44"/>
       <c r="C44"/>
@@ -2526,7 +3603,7 @@
       </c>
       <c r="X44" s="12"/>
     </row>
-    <row r="45" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A45"/>
       <c r="B45"/>
       <c r="C45"/>
@@ -2547,7 +3624,7 @@
       </c>
       <c r="X45" s="12"/>
     </row>
-    <row r="46" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A46"/>
       <c r="B46"/>
       <c r="C46"/>
@@ -2568,7 +3645,7 @@
       </c>
       <c r="X46" s="12"/>
     </row>
-    <row r="47" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A47"/>
       <c r="B47"/>
       <c r="C47"/>
@@ -2589,7 +3666,7 @@
       </c>
       <c r="X47" s="12"/>
     </row>
-    <row r="48" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A48"/>
       <c r="B48"/>
       <c r="C48"/>
@@ -2610,7 +3687,7 @@
       </c>
       <c r="X48" s="12"/>
     </row>
-    <row r="49" spans="21:24" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="21:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="U49" t="s">
         <v>61</v>
       </c>
@@ -2620,7 +3697,7 @@
       </c>
       <c r="X49" s="12"/>
     </row>
-    <row r="50" spans="21:24" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="21:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="U50" t="s">
         <v>39</v>
       </c>
@@ -2630,7 +3707,7 @@
       </c>
       <c r="X50" s="12"/>
     </row>
-    <row r="51" spans="21:24" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="21:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="U51" t="s">
         <v>40</v>
       </c>
@@ -2640,7 +3717,7 @@
       </c>
       <c r="X51" s="12"/>
     </row>
-    <row r="52" spans="21:24" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="21:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="U52" t="s">
         <v>41</v>
       </c>
@@ -2650,7 +3727,7 @@
       </c>
       <c r="X52" s="12"/>
     </row>
-    <row r="53" spans="21:24" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="21:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="U53" t="s">
         <v>62</v>
       </c>
@@ -2660,7 +3737,7 @@
       </c>
       <c r="X53" s="12"/>
     </row>
-    <row r="54" spans="21:24" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="21:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="U54" t="s">
         <v>42</v>
       </c>
@@ -2670,7 +3747,7 @@
       </c>
       <c r="X54" s="12"/>
     </row>
-    <row r="55" spans="21:24" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="21:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="U55" t="s">
         <v>43</v>
       </c>
@@ -2680,7 +3757,7 @@
       </c>
       <c r="X55" s="12"/>
     </row>
-    <row r="56" spans="21:24" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="21:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="U56" t="s">
         <v>44</v>
       </c>
@@ -2690,7 +3767,7 @@
       </c>
       <c r="X56" s="12"/>
     </row>
-    <row r="57" spans="21:24" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="21:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="U57" t="s">
         <v>63</v>
       </c>
@@ -2700,7 +3777,7 @@
       </c>
       <c r="X57" s="12"/>
     </row>
-    <row r="58" spans="21:24" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="21:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="U58" t="s">
         <v>45</v>
       </c>
@@ -2710,17 +3787,14 @@
       </c>
       <c r="X58" s="12"/>
     </row>
-    <row r="59" spans="21:24" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="60" spans="21:24" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="61" spans="21:24" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="63" spans="21:24" x14ac:dyDescent="0.3">
-      <c r="V63" s="10" t="e">
-        <f>V58-#REF!</f>
-        <v>#REF!</v>
-      </c>
+    <row r="59" spans="21:24" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="60" spans="21:24" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="61" spans="21:24" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="63" spans="21:24" x14ac:dyDescent="0.2">
+      <c r="V63" s="10"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -2730,13 +3804,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE6EDCF2-97D5-CC41-A133-1E343AE07A97}">
   <dimension ref="A1:AE59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="63" zoomScaleNormal="63" workbookViewId="0">
-      <selection activeCell="X20" sqref="X1:X20"/>
+    <sheetView topLeftCell="Q23" zoomScaleNormal="63" workbookViewId="0">
+      <selection activeCell="AA34" sqref="AA34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="24" max="24" width="12.83203125" customWidth="1"/>
+    <col min="31" max="31" width="14" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:31" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:31" ht="18" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2809,11 +3887,11 @@
       <c r="AD1" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="AE1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="2" spans="1:31" ht="18" x14ac:dyDescent="0.35">
+      <c r="AE1" s="20">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:31" ht="18" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -2856,11 +3934,11 @@
       <c r="AD2" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="AE2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="3" spans="1:31" ht="18" x14ac:dyDescent="0.35">
+      <c r="AE2" s="20">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:31" ht="18" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -2903,11 +3981,11 @@
       <c r="AD3" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="AE3" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="4" spans="1:31" ht="18" x14ac:dyDescent="0.35">
+      <c r="AE3" s="20">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="4" spans="1:31" ht="18" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
@@ -2950,11 +4028,11 @@
       <c r="AD4" s="17" t="s">
         <v>89</v>
       </c>
-      <c r="AE4" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="5" spans="1:31" ht="18" x14ac:dyDescent="0.35">
+      <c r="AE4" s="10">
+        <v>4.8000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:31" ht="18" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
@@ -2997,11 +4075,11 @@
       <c r="AD5" s="17" t="s">
         <v>90</v>
       </c>
-      <c r="AE5" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="6" spans="1:31" ht="18" x14ac:dyDescent="0.35">
+      <c r="AE5" s="10">
+        <v>0.192</v>
+      </c>
+    </row>
+    <row r="6" spans="1:31" ht="18" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
@@ -3044,11 +4122,11 @@
       <c r="AD6" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="AE6" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="7" spans="1:31" ht="18" x14ac:dyDescent="0.35">
+      <c r="AE6" s="20">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:31" ht="18" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
@@ -3089,11 +4167,11 @@
       <c r="AD7" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="AE7" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="8" spans="1:31" ht="18" x14ac:dyDescent="0.35">
+      <c r="AE7" s="10">
+        <v>2.4E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:31" ht="18" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
@@ -3134,11 +4212,11 @@
       <c r="AD8" s="17" t="s">
         <v>92</v>
       </c>
-      <c r="AE8" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="9" spans="1:31" ht="18" x14ac:dyDescent="0.35">
+      <c r="AE8" s="20">
+        <v>0.53</v>
+      </c>
+    </row>
+    <row r="9" spans="1:31" ht="18" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
@@ -3178,8 +4256,14 @@
       <c r="X9">
         <v>2.6435E-2</v>
       </c>
-    </row>
-    <row r="10" spans="1:31" ht="18" x14ac:dyDescent="0.35">
+      <c r="AD9" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="AE9" s="20">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31" ht="18" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
@@ -3220,7 +4304,7 @@
         <v>4.5440000000000003E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:31" ht="18" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:31" ht="18" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
@@ -3261,7 +4345,7 @@
         <v>1.6062E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:31" ht="18" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:31" ht="18" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>12</v>
       </c>
@@ -3300,7 +4384,7 @@
         <v>2.8779999999999999E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:31" ht="18" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:31" ht="18" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>13</v>
       </c>
@@ -3341,7 +4425,7 @@
         <v>0.15942100000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:31" ht="18" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:31" ht="18" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>14</v>
       </c>
@@ -3378,7 +4462,7 @@
         <v>1.1169999999999999E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:31" ht="18" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:31" ht="18" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>15</v>
       </c>
@@ -3417,7 +4501,7 @@
         <v>0.26547700000000002</v>
       </c>
     </row>
-    <row r="16" spans="1:31" ht="18" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:31" ht="18" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>16</v>
       </c>
@@ -3456,7 +4540,7 @@
         <v>2.1229999999999999E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:24" ht="18" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:29" ht="18" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>17</v>
       </c>
@@ -3495,7 +4579,7 @@
         <v>1.6121E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:24" ht="18" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:29" ht="18" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>18</v>
       </c>
@@ -3536,7 +4620,7 @@
         <v>3.3779999999999999E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:24" ht="18" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:29" ht="18" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>19</v>
       </c>
@@ -3577,7 +4661,7 @@
         <v>0.159552</v>
       </c>
     </row>
-    <row r="20" spans="1:24" ht="18" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:29" ht="18" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>87</v>
       </c>
@@ -3616,7 +4700,7 @@
         <v>1.6659999999999999E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:29" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>88</v>
       </c>
@@ -3649,7 +4733,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>0</v>
       </c>
@@ -3716,8 +4800,26 @@
       <c r="W24" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="25" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="X24">
+        <f>AE1*AE9</f>
+        <v>2.4</v>
+      </c>
+      <c r="Y24">
+        <v>2.4</v>
+      </c>
+      <c r="AA24" t="s">
+        <v>64</v>
+      </c>
+      <c r="AB24">
+        <f>((1-X35)*X27)/3</f>
+        <v>0.40525933333333342</v>
+      </c>
+      <c r="AC24" s="13">
+        <f>(AB24-X31)/AB24</f>
+        <v>-0.51036866928008218</v>
+      </c>
+    </row>
+    <row r="25" spans="1:29" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>1</v>
       </c>
@@ -3754,8 +4856,26 @@
       <c r="W25" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="26" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="X25">
+        <f>AE9*AE2</f>
+        <v>1</v>
+      </c>
+      <c r="Y25">
+        <v>1</v>
+      </c>
+      <c r="AA25" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB25">
+        <f>X47*X59</f>
+        <v>2.0726910000000003</v>
+      </c>
+      <c r="AC25" s="13">
+        <f>(AB25-X43)/AB25</f>
+        <v>-0.29936686172709753</v>
+      </c>
+    </row>
+    <row r="26" spans="1:29" ht="16" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>2</v>
       </c>
@@ -3792,8 +4912,26 @@
       <c r="W26" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="27" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="X26">
+        <f>AE9*AE3</f>
+        <v>0.6</v>
+      </c>
+      <c r="Y26">
+        <v>0.6</v>
+      </c>
+      <c r="AA26" t="s">
+        <v>66</v>
+      </c>
+      <c r="AB26">
+        <f>X44*X56</f>
+        <v>1.2003218</v>
+      </c>
+      <c r="AC26" s="12">
+        <f>(AB26-X40)/AB26</f>
+        <v>-0.51155798386732632</v>
+      </c>
+    </row>
+    <row r="27" spans="1:29" ht="16" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>3</v>
       </c>
@@ -3830,8 +4968,26 @@
       <c r="W27" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="28" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="X27">
+        <f>SUM(X24:X26)</f>
+        <v>4</v>
+      </c>
+      <c r="Y27">
+        <v>4</v>
+      </c>
+      <c r="AA27" t="s">
+        <v>67</v>
+      </c>
+      <c r="AB27">
+        <f>X45*X57</f>
+        <v>0.49916800000000011</v>
+      </c>
+      <c r="AC27" s="12">
+        <f>(AB27-X41)/AB27</f>
+        <v>-3.3335470222446788E-3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:29" ht="16" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>4</v>
       </c>
@@ -3868,9 +5024,26 @@
       <c r="W28" t="s">
         <v>23</v>
       </c>
-      <c r="X28" s="10"/>
-    </row>
-    <row r="29" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="X28" s="10">
+        <f>1 - (X1+X4+X5+X8)</f>
+        <v>0.95744300000000004</v>
+      </c>
+      <c r="Y28">
+        <v>0.71141399999999999</v>
+      </c>
+      <c r="AA28" t="s">
+        <v>68</v>
+      </c>
+      <c r="AB28">
+        <f>X46*X58</f>
+        <v>0.37320120000000001</v>
+      </c>
+      <c r="AC28" s="12">
+        <f t="shared" ref="AC28" si="0">(AB28-X42)/AB28</f>
+        <v>-1.285312051515373E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:29" ht="16" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>5</v>
       </c>
@@ -3907,9 +5080,15 @@
       <c r="W29" t="s">
         <v>24</v>
       </c>
-      <c r="X29" s="10"/>
-    </row>
-    <row r="30" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="X29" s="10">
+        <f>1-(X1+X2+X3+X5+X6+X7+X11+X12+X13+X14)</f>
+        <v>0.50083199999999994</v>
+      </c>
+      <c r="Y29">
+        <v>0.6666669999999999</v>
+      </c>
+    </row>
+    <row r="30" spans="1:29" ht="16" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
         <v>6</v>
       </c>
@@ -3944,9 +5123,15 @@
       <c r="W30" t="s">
         <v>53</v>
       </c>
-      <c r="X30" s="10"/>
-    </row>
-    <row r="31" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="X30" s="10">
+        <f>1-(X1+X2+X3+X4+X6+X7+X9+X10+X15+X16)</f>
+        <v>0.37799800000000006</v>
+      </c>
+      <c r="Y30">
+        <v>0.54403499999999994</v>
+      </c>
+    </row>
+    <row r="31" spans="1:29" ht="16" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
         <v>7</v>
       </c>
@@ -3981,9 +5166,15 @@
       <c r="W31" t="s">
         <v>25</v>
       </c>
-      <c r="X31" s="10"/>
-    </row>
-    <row r="32" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="X31" s="10">
+        <f>(X28+X29+X30)/3</f>
+        <v>0.61209100000000005</v>
+      </c>
+      <c r="Y31">
+        <v>0.64070533333333335</v>
+      </c>
+    </row>
+    <row r="32" spans="1:29" ht="16" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
         <v>8</v>
       </c>
@@ -4020,9 +5211,15 @@
       <c r="W32" t="s">
         <v>54</v>
       </c>
-      <c r="X32" s="10"/>
-    </row>
-    <row r="33" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="X32" s="10">
+        <f>X6+X7+X13+X14+X15+X16+X19+X20</f>
+        <v>0.85691299999999992</v>
+      </c>
+      <c r="Y32">
+        <v>0.71141500000000002</v>
+      </c>
+    </row>
+    <row r="33" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
         <v>9</v>
       </c>
@@ -4059,9 +5256,15 @@
       <c r="W33" t="s">
         <v>55</v>
       </c>
-      <c r="X33" s="10"/>
-    </row>
-    <row r="34" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="X33" s="10">
+        <f>X4+X8+X9+X10+X15+X16+X17+X18+X19+X20</f>
+        <v>0.50083199999999994</v>
+      </c>
+      <c r="Y33">
+        <v>0.33333400000000002</v>
+      </c>
+    </row>
+    <row r="34" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
         <v>10</v>
       </c>
@@ -4098,9 +5301,15 @@
       <c r="W34" t="s">
         <v>56</v>
       </c>
-      <c r="X34" s="10"/>
-    </row>
-    <row r="35" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="X34" s="10">
+        <f>X5+X8+X11+X12+X13+X14+X17+X18+X19+X20</f>
+        <v>0.377998</v>
+      </c>
+      <c r="Y34">
+        <v>0.204013</v>
+      </c>
+    </row>
+    <row r="35" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
         <v>12</v>
       </c>
@@ -4135,9 +5344,15 @@
       <c r="W35" t="s">
         <v>57</v>
       </c>
-      <c r="X35" s="10"/>
-    </row>
-    <row r="36" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="X35" s="10">
+        <f>X32*0.6 + X33*0.25+X34*0.15</f>
+        <v>0.69605549999999994</v>
+      </c>
+      <c r="Y35">
+        <v>0.54078444999999997</v>
+      </c>
+    </row>
+    <row r="36" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
         <v>13</v>
       </c>
@@ -4174,9 +5389,15 @@
       <c r="W36" t="s">
         <v>26</v>
       </c>
-      <c r="X36" s="10"/>
-    </row>
-    <row r="37" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="X36" s="10">
+        <f>X6+X7+X13+X14+X15+X16+X19+X20</f>
+        <v>0.85691299999999992</v>
+      </c>
+      <c r="Y36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
         <v>14</v>
       </c>
@@ -4209,9 +5430,14 @@
       <c r="W37" t="s">
         <v>27</v>
       </c>
-      <c r="X37" s="10"/>
-    </row>
-    <row r="38" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="X37" s="10">
+        <v>0</v>
+      </c>
+      <c r="Y37">
+        <v>0.33333400000000002</v>
+      </c>
+    </row>
+    <row r="38" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
         <v>15</v>
       </c>
@@ -4246,9 +5472,14 @@
       <c r="W38" t="s">
         <v>58</v>
       </c>
-      <c r="X38" s="10"/>
-    </row>
-    <row r="39" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="X38" s="10">
+        <v>0</v>
+      </c>
+      <c r="Y38">
+        <v>0.204013</v>
+      </c>
+    </row>
+    <row r="39" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
         <v>16</v>
       </c>
@@ -4283,9 +5514,15 @@
       <c r="W39" t="s">
         <v>28</v>
       </c>
-      <c r="X39" s="10"/>
-    </row>
-    <row r="40" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="X39" s="10">
+        <f>X36+X37+X38</f>
+        <v>0.85691299999999992</v>
+      </c>
+      <c r="Y39">
+        <v>0.53734700000000002</v>
+      </c>
+    </row>
+    <row r="40" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
         <v>17</v>
       </c>
@@ -4320,9 +5557,15 @@
       <c r="W40" t="s">
         <v>29</v>
       </c>
-      <c r="X40" s="10"/>
-    </row>
-    <row r="41" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="X40" s="10">
+        <f>X2+X3+X9+X10+X11+X12+X17+X18+(X6+X13+X14+X15+X16+X19+X20+X7)*2</f>
+        <v>1.8143560000000001</v>
+      </c>
+      <c r="Y40">
+        <v>0.71141500000000002</v>
+      </c>
+    </row>
+    <row r="41" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
         <v>18</v>
       </c>
@@ -4359,9 +5602,15 @@
       <c r="W41" t="s">
         <v>30</v>
       </c>
-      <c r="X41" s="10"/>
-    </row>
-    <row r="42" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="X41" s="10">
+        <f>X33</f>
+        <v>0.50083199999999994</v>
+      </c>
+      <c r="Y41">
+        <v>1.0000020000000001</v>
+      </c>
+    </row>
+    <row r="42" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
         <v>19</v>
       </c>
@@ -4398,9 +5647,15 @@
       <c r="W42" t="s">
         <v>59</v>
       </c>
-      <c r="X42" s="10"/>
-    </row>
-    <row r="43" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="X42" s="10">
+        <f>X34</f>
+        <v>0.377998</v>
+      </c>
+      <c r="Y42">
+        <v>0.74804899999999996</v>
+      </c>
+    </row>
+    <row r="43" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
         <v>87</v>
       </c>
@@ -4435,9 +5690,15 @@
       <c r="W43" t="s">
         <v>31</v>
       </c>
-      <c r="X43" s="10"/>
-    </row>
-    <row r="44" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="X43" s="10">
+        <f>SUM(X40:X42)</f>
+        <v>2.6931859999999999</v>
+      </c>
+      <c r="Y43">
+        <v>2.4594659999999999</v>
+      </c>
+    </row>
+    <row r="44" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
         <v>88</v>
       </c>
@@ -4472,99 +5733,345 @@
       <c r="W44" t="s">
         <v>32</v>
       </c>
-      <c r="X44" s="10"/>
-    </row>
-    <row r="45" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="X44" s="10">
+        <f>(1-X32)*AE1</f>
+        <v>3.4340880000000018E-2</v>
+      </c>
+      <c r="Y44">
+        <v>6.9260399999999986E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:25" x14ac:dyDescent="0.2">
       <c r="W45" t="s">
         <v>33</v>
       </c>
-      <c r="X45" s="10"/>
-    </row>
-    <row r="46" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="X45" s="10">
+        <f>(1-X33)*AE2</f>
+        <v>4.9916800000000011E-2</v>
+      </c>
+      <c r="Y45">
+        <v>6.6666600000000006E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:25" x14ac:dyDescent="0.2">
       <c r="W46" t="s">
         <v>60</v>
       </c>
-      <c r="X46" s="10"/>
-    </row>
-    <row r="47" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="X46" s="10">
+        <f t="shared" ref="X46" si="1">(1-X34)*AE3</f>
+        <v>3.7320119999999998E-2</v>
+      </c>
+      <c r="Y46">
+        <v>4.7759219999999998E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:25" x14ac:dyDescent="0.2">
       <c r="W47" t="s">
         <v>34</v>
       </c>
-      <c r="X47" s="10"/>
-    </row>
-    <row r="48" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="X47" s="10">
+        <f>SUM(X44:X46)</f>
+        <v>0.12157780000000003</v>
+      </c>
+      <c r="Y47">
+        <v>0.18368621999999998</v>
+      </c>
+    </row>
+    <row r="48" spans="1:25" x14ac:dyDescent="0.2">
       <c r="W48" t="s">
         <v>37</v>
       </c>
-      <c r="X48" s="10"/>
-    </row>
-    <row r="49" spans="23:24" x14ac:dyDescent="0.3">
+      <c r="X48" s="10">
+        <f>1-X28</f>
+        <v>4.2556999999999956E-2</v>
+      </c>
+      <c r="Y48">
+        <v>0.28858600000000001</v>
+      </c>
+    </row>
+    <row r="49" spans="23:25" x14ac:dyDescent="0.2">
       <c r="W49" t="s">
         <v>38</v>
       </c>
-      <c r="X49" s="10"/>
-    </row>
-    <row r="50" spans="23:24" x14ac:dyDescent="0.3">
+      <c r="X49" s="10">
+        <f t="shared" ref="X49:X50" si="2">1-X29</f>
+        <v>0.49916800000000006</v>
+      </c>
+      <c r="Y49">
+        <v>0.3333330000000001</v>
+      </c>
+    </row>
+    <row r="50" spans="23:25" x14ac:dyDescent="0.2">
       <c r="W50" t="s">
         <v>61</v>
       </c>
-      <c r="X50" s="10"/>
-    </row>
-    <row r="51" spans="23:24" x14ac:dyDescent="0.3">
+      <c r="X50" s="10">
+        <f t="shared" si="2"/>
+        <v>0.62200199999999994</v>
+      </c>
+      <c r="Y50">
+        <v>0.45596500000000006</v>
+      </c>
+    </row>
+    <row r="51" spans="23:25" x14ac:dyDescent="0.2">
       <c r="W51" t="s">
         <v>39</v>
       </c>
-      <c r="X51" s="10"/>
-    </row>
-    <row r="52" spans="23:24" x14ac:dyDescent="0.3">
+      <c r="X51" s="10">
+        <f>1-X31</f>
+        <v>0.38790899999999995</v>
+      </c>
+      <c r="Y51">
+        <v>0.35929466666666665</v>
+      </c>
+    </row>
+    <row r="52" spans="23:25" x14ac:dyDescent="0.2">
       <c r="W52" t="s">
         <v>40</v>
       </c>
-      <c r="X52" s="10"/>
-    </row>
-    <row r="53" spans="23:24" x14ac:dyDescent="0.3">
+      <c r="X52" s="10">
+        <f>X36/X44</f>
+        <v>24.953146221063626</v>
+      </c>
+      <c r="Y52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="23:25" x14ac:dyDescent="0.2">
       <c r="W53" t="s">
         <v>41</v>
       </c>
-      <c r="X53" s="10"/>
-    </row>
-    <row r="54" spans="23:24" x14ac:dyDescent="0.3">
+      <c r="X53" s="10">
+        <f t="shared" ref="X53:X54" si="3">X37/X45</f>
+        <v>0</v>
+      </c>
+      <c r="Y53">
+        <v>5.0000150000149999</v>
+      </c>
+    </row>
+    <row r="54" spans="23:25" x14ac:dyDescent="0.2">
       <c r="W54" t="s">
         <v>62</v>
       </c>
-      <c r="X54" s="10"/>
-    </row>
-    <row r="55" spans="23:24" x14ac:dyDescent="0.3">
+      <c r="X54" s="10">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Y54">
+        <v>4.2716987421486365</v>
+      </c>
+    </row>
+    <row r="55" spans="23:25" x14ac:dyDescent="0.2">
       <c r="W55" t="s">
         <v>42</v>
       </c>
-      <c r="X55" s="10"/>
-    </row>
-    <row r="56" spans="23:24" x14ac:dyDescent="0.3">
+      <c r="X55" s="10">
+        <f>X39/X47</f>
+        <v>7.0482686806308363</v>
+      </c>
+      <c r="Y55">
+        <v>2.9253528108967566</v>
+      </c>
+    </row>
+    <row r="56" spans="23:25" x14ac:dyDescent="0.2">
       <c r="W56" t="s">
         <v>43</v>
       </c>
-      <c r="X56" s="10"/>
-    </row>
-    <row r="57" spans="23:24" x14ac:dyDescent="0.3">
+      <c r="X56" s="10">
+        <f>X52+$AE$9</f>
+        <v>34.953146221063626</v>
+      </c>
+      <c r="Y56">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57" spans="23:25" x14ac:dyDescent="0.2">
       <c r="W57" t="s">
         <v>44</v>
       </c>
-      <c r="X57" s="10"/>
-    </row>
-    <row r="58" spans="23:24" x14ac:dyDescent="0.3">
+      <c r="X57" s="10">
+        <f t="shared" ref="X57:X59" si="4">X53+$AE$9</f>
+        <v>10</v>
+      </c>
+      <c r="Y57">
+        <v>15.000015000015001</v>
+      </c>
+    </row>
+    <row r="58" spans="23:25" x14ac:dyDescent="0.2">
       <c r="W58" t="s">
         <v>63</v>
       </c>
-      <c r="X58" s="10"/>
-    </row>
-    <row r="59" spans="23:24" x14ac:dyDescent="0.3">
+      <c r="X58" s="10">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="Y58">
+        <v>14.271698742148637</v>
+      </c>
+    </row>
+    <row r="59" spans="23:25" x14ac:dyDescent="0.2">
       <c r="W59" t="s">
         <v>45</v>
       </c>
-      <c r="X59" s="10"/>
+      <c r="X59" s="10">
+        <f t="shared" si="4"/>
+        <v>17.048268680630837</v>
+      </c>
+      <c r="Y59">
+        <v>12.925352810896756</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D9C9972-47AB-0543-AF0F-4EC937C01911}">
+  <dimension ref="A1:D9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="21" t="s">
+        <v>103</v>
+      </c>
+      <c r="B1" s="21">
+        <v>4</v>
+      </c>
+      <c r="C1" s="21">
+        <v>4</v>
+      </c>
+      <c r="D1" s="21" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="21" t="s">
+        <v>104</v>
+      </c>
+      <c r="B2" s="21">
+        <v>0.64070532999999996</v>
+      </c>
+      <c r="C2" s="22">
+        <v>0.61199999999999999</v>
+      </c>
+      <c r="D2" s="22">
+        <f>B2/C2*100 - 100</f>
+        <v>4.6904133986928116</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="B3" s="21">
+        <v>0.54078444999999997</v>
+      </c>
+      <c r="C3" s="22">
+        <v>0.69599999999999995</v>
+      </c>
+      <c r="D3" s="22">
+        <f t="shared" ref="D3:D9" si="0">B3/C3*100 - 100</f>
+        <v>-22.30108477011494</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="21" t="s">
+        <v>106</v>
+      </c>
+      <c r="B4" s="21">
+        <v>0.53734700000000002</v>
+      </c>
+      <c r="C4" s="22">
+        <v>0.85699999999999998</v>
+      </c>
+      <c r="D4" s="22">
+        <f t="shared" si="0"/>
+        <v>-37.299066511085179</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="21" t="s">
+        <v>107</v>
+      </c>
+      <c r="B5" s="21">
+        <v>2.4594659999999999</v>
+      </c>
+      <c r="C5" s="22">
+        <v>2.6930000000000001</v>
+      </c>
+      <c r="D5" s="22">
+        <f t="shared" si="0"/>
+        <v>-8.6718900854066163</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="21" t="s">
+        <v>108</v>
+      </c>
+      <c r="B6" s="21">
+        <v>0.18368622000000001</v>
+      </c>
+      <c r="C6" s="22">
+        <v>0.122</v>
+      </c>
+      <c r="D6" s="22">
+        <f t="shared" si="0"/>
+        <v>50.562475409836082</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="B7" s="21">
+        <v>0.35929466999999998</v>
+      </c>
+      <c r="C7" s="22">
+        <v>0.38800000000000001</v>
+      </c>
+      <c r="D7" s="22">
+        <f t="shared" si="0"/>
+        <v>-7.3982809278350601</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="21" t="s">
+        <v>110</v>
+      </c>
+      <c r="B8" s="21">
+        <v>2.9253528100000001</v>
+      </c>
+      <c r="C8" s="22">
+        <v>7.048</v>
+      </c>
+      <c r="D8" s="22">
+        <f t="shared" si="0"/>
+        <v>-58.493859108967087</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="21" t="s">
+        <v>111</v>
+      </c>
+      <c r="B9" s="21">
+        <v>12.925352800000001</v>
+      </c>
+      <c r="C9" s="22">
+        <v>17.047999999999998</v>
+      </c>
+      <c r="D9" s="22">
+        <f t="shared" si="0"/>
+        <v>-24.182585640544332</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>